--- a/Data/无磁场/Data-M_c=3.xlsx
+++ b/Data/无磁场/Data-M_c=3.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Project\Data\无磁场\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C8E63D-BAF3-4B96-844D-FD7A298AFC0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952"/>
+    <workbookView windowWidth="22343" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Data-M_c=3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -61,36 +55,125 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Droid Sans Mono"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Droid Sans Mono"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Droid Sans Mono"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Droid Sans Mono"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线 Light"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Droid Sans Mono"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -98,81 +181,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF9C0006"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF9C5700"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -180,28 +188,12 @@
       <sz val="16"/>
       <color rgb="FF7F7F7F"/>
       <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="0"/>
+      <color rgb="FF9C5700"/>
       <name val="Droid Sans Mono"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Droid Sans Mono"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -214,175 +206,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -397,81 +402,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,140 +428,231 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -638,58 +664,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -738,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -771,26 +800,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -823,23 +835,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -981,24 +976,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
+  <cols>
+    <col min="7" max="7" width="13.375"/>
+    <col min="8" max="8" width="11.1875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,21 +1023,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4436599.6239999998</v>
+        <v>4436599.624</v>
       </c>
       <c r="C2">
-        <v>21.600650720000001</v>
+        <v>21.60065072</v>
       </c>
       <c r="D2">
-        <v>5.2528737359999997</v>
+        <v>5.252873736</v>
       </c>
       <c r="E2" s="1">
-        <v>2.4499999999999999E-5</v>
+        <v>2.45e-5</v>
       </c>
       <c r="F2">
         <v>3.1</v>
@@ -1059,135 +1055,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6079121.2149999999</v>
+        <v>6079121.215</v>
       </c>
       <c r="C3">
-        <v>21.563939730000001</v>
+        <v>21.56393973</v>
       </c>
       <c r="D3">
-        <v>2.7825422120000001</v>
+        <v>2.782542212</v>
       </c>
       <c r="E3" s="1">
-        <v>9.9799999999999993E-6</v>
+        <v>9.98e-6</v>
       </c>
       <c r="F3">
-        <v>3.1221105530000002</v>
+        <v>3.122110553</v>
       </c>
       <c r="G3">
-        <v>-8.5048899999999993E-3</v>
+        <v>-0.00850489</v>
       </c>
       <c r="H3">
-        <v>0.64041145899999996</v>
+        <v>0.640411459</v>
       </c>
       <c r="I3">
-        <v>1.9377879000000001E-2</v>
+        <v>0.019377879</v>
       </c>
       <c r="J3">
-        <v>1.9377879000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.019377879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7769239.7240000004</v>
+        <v>7769239.724</v>
       </c>
       <c r="C4">
-        <v>21.549121979999999</v>
+        <v>21.54912198</v>
       </c>
       <c r="D4">
-        <v>1.7064065900000001</v>
+        <v>1.70640659</v>
       </c>
       <c r="E4" s="1">
-        <v>4.9699999999999998E-6</v>
+        <v>4.97e-6</v>
       </c>
       <c r="F4">
-        <v>3.1442211059999998</v>
+        <v>3.144221106</v>
       </c>
       <c r="G4">
-        <v>-3.436953E-3</v>
+        <v>-0.003436953</v>
       </c>
       <c r="H4">
-        <v>0.49555995800000002</v>
+        <v>0.495559958</v>
       </c>
       <c r="I4">
-        <v>3.4758584000000002E-2</v>
+        <v>0.034758584</v>
       </c>
       <c r="J4">
-        <v>5.4136464000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.054136464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9487376.9509999994</v>
+        <v>9487376.951</v>
       </c>
       <c r="C5">
-        <v>21.548541969999999</v>
+        <v>21.54854197</v>
       </c>
       <c r="D5">
-        <v>1.1515140639999999</v>
+        <v>1.151514064</v>
       </c>
       <c r="E5" s="1">
-        <v>2.8200000000000001E-6</v>
+        <v>2.82e-6</v>
       </c>
       <c r="F5">
-        <v>3.1663316579999998</v>
+        <v>3.166331658</v>
       </c>
       <c r="G5">
-        <v>-1.3457899999999999E-4</v>
+        <v>-0.000134579</v>
       </c>
       <c r="H5">
-        <v>0.40224330200000002</v>
+        <v>0.402243302</v>
       </c>
       <c r="I5">
-        <v>5.4502764000000002E-2</v>
+        <v>0.054502764</v>
       </c>
       <c r="J5">
         <v>0.108639227</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11220651.640000001</v>
+        <v>11220651.64</v>
       </c>
       <c r="C6">
-        <v>21.557876090000001</v>
+        <v>21.55787609</v>
       </c>
       <c r="D6">
-        <v>0.83107107000000002</v>
+        <v>0.83107107</v>
       </c>
       <c r="E6" s="1">
-        <v>1.7600000000000001E-6</v>
+        <v>1.76e-6</v>
       </c>
       <c r="F6">
-        <v>3.1884422109999999</v>
+        <v>3.188442211</v>
       </c>
       <c r="G6">
-        <v>2.1653649999999998E-3</v>
+        <v>0.002165365</v>
       </c>
       <c r="H6">
-        <v>0.33716455699999998</v>
+        <v>0.337164557</v>
       </c>
       <c r="I6">
-        <v>7.8301641000000005E-2</v>
+        <v>0.078301641</v>
       </c>
       <c r="J6">
-        <v>0.18694086800000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.186940868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1195,19 +1191,19 @@
         <v>12960056.49</v>
       </c>
       <c r="C7">
-        <v>21.574446529999999</v>
+        <v>21.57444653</v>
       </c>
       <c r="D7">
-        <v>0.63035031699999999</v>
+        <v>0.630350317</v>
       </c>
       <c r="E7" s="1">
-        <v>1.17E-6</v>
+        <v>1.17e-6</v>
       </c>
       <c r="F7">
         <v>3.210552764</v>
       </c>
       <c r="G7">
-        <v>3.8417690000000001E-3</v>
+        <v>0.003841769</v>
       </c>
       <c r="H7">
         <v>0.28923092</v>
@@ -1219,7 +1215,7 @@
         <v>0.292723389</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1227,31 +1223,31 @@
         <v>14699016.9</v>
       </c>
       <c r="C8">
-        <v>21.596481300000001</v>
+        <v>21.5964813</v>
       </c>
       <c r="D8">
-        <v>0.49670132900000002</v>
+        <v>0.496701329</v>
       </c>
       <c r="E8" s="1">
-        <v>8.2200000000000003E-7</v>
+        <v>8.22e-7</v>
       </c>
       <c r="F8">
-        <v>3.2326633170000001</v>
+        <v>3.232663317</v>
       </c>
       <c r="G8">
-        <v>5.1040790000000001E-3</v>
+        <v>0.005104079</v>
       </c>
       <c r="H8">
-        <v>0.25248299699999999</v>
+        <v>0.252482997</v>
       </c>
       <c r="I8">
-        <v>0.13653886000000001</v>
+        <v>0.13653886</v>
       </c>
       <c r="J8">
-        <v>0.42926224899999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.429262249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1265,121 +1261,121 @@
         <v>0.403377343</v>
       </c>
       <c r="E9" s="1">
-        <v>6.0200000000000002E-7</v>
+        <v>6.02e-7</v>
       </c>
       <c r="F9">
-        <v>3.2547738690000001</v>
+        <v>3.254773869</v>
       </c>
       <c r="G9">
-        <v>6.0767820000000002E-3</v>
+        <v>0.006076782</v>
       </c>
       <c r="H9">
         <v>0.223439209</v>
       </c>
       <c r="I9">
-        <v>0.17015551300000001</v>
+        <v>0.170155513</v>
       </c>
       <c r="J9">
-        <v>0.59941776199999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.599417762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18157062.399999999</v>
+        <v>18157062.4</v>
       </c>
       <c r="C10">
-        <v>21.652347209999999</v>
+        <v>21.65234721</v>
       </c>
       <c r="D10">
-        <v>0.33568960199999998</v>
+        <v>0.335689602</v>
       </c>
       <c r="E10" s="1">
-        <v>4.5699999999999998E-7</v>
+        <v>4.57e-7</v>
       </c>
       <c r="F10">
-        <v>3.2768844220000002</v>
+        <v>3.276884422</v>
       </c>
       <c r="G10">
-        <v>6.8405510000000003E-3</v>
+        <v>0.006840551</v>
       </c>
       <c r="H10">
         <v>0.199912377</v>
       </c>
       <c r="I10">
-        <v>0.20620928199999999</v>
+        <v>0.206209282</v>
       </c>
       <c r="J10">
-        <v>0.80562704399999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.805627044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19869359.920000002</v>
+        <v>19869359.92</v>
       </c>
       <c r="C11">
-        <v>21.684621870000001</v>
+        <v>21.68462187</v>
       </c>
       <c r="D11">
-        <v>0.28504821600000002</v>
+        <v>0.285048216</v>
       </c>
       <c r="E11" s="1">
-        <v>3.5600000000000001E-7</v>
+        <v>3.56e-7</v>
       </c>
       <c r="F11">
-        <v>3.2989949749999998</v>
+        <v>3.298994975</v>
       </c>
       <c r="G11">
-        <v>7.4473789999999996E-3</v>
+        <v>0.007447379</v>
       </c>
       <c r="H11">
-        <v>0.18048255599999999</v>
+        <v>0.180482556</v>
       </c>
       <c r="I11">
-        <v>0.24429906700000001</v>
+        <v>0.244299067</v>
       </c>
       <c r="J11">
-        <v>1.0499261120000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.049926112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21567173.850000001</v>
+        <v>21567173.85</v>
       </c>
       <c r="C12">
         <v>21.71905838</v>
       </c>
       <c r="D12">
-        <v>0.24617088400000001</v>
+        <v>0.246170884</v>
       </c>
       <c r="E12" s="1">
-        <v>2.84E-7</v>
+        <v>2.84e-7</v>
       </c>
       <c r="F12">
-        <v>3.3211055279999999</v>
+        <v>3.321105528</v>
       </c>
       <c r="G12">
-        <v>7.93401E-3</v>
+        <v>0.00793401</v>
       </c>
       <c r="H12">
-        <v>0.16417098199999999</v>
+        <v>0.164170982</v>
       </c>
       <c r="I12">
-        <v>0.28403466399999999</v>
+        <v>0.284034664</v>
       </c>
       <c r="J12">
-        <v>1.3339607760000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.333960776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1387,191 +1383,191 @@
         <v>23248623</v>
       </c>
       <c r="C13">
-        <v>21.755258139999999</v>
+        <v>21.75525814</v>
       </c>
       <c r="D13">
-        <v>0.21566929400000001</v>
+        <v>0.215669294</v>
       </c>
       <c r="E13" s="1">
-        <v>2.3099999999999999E-7</v>
+        <v>2.31e-7</v>
       </c>
       <c r="F13">
-        <v>3.3432160799999999</v>
+        <v>3.34321608</v>
       </c>
       <c r="G13">
-        <v>8.3267069999999992E-3</v>
+        <v>0.008326707</v>
       </c>
       <c r="H13">
-        <v>0.15028802799999999</v>
+        <v>0.150288028</v>
       </c>
       <c r="I13">
-        <v>0.32504876900000002</v>
+        <v>0.325048769</v>
       </c>
       <c r="J13">
         <v>1.659009545</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24912207.449999999</v>
+        <v>24912207.45</v>
       </c>
       <c r="C14">
-        <v>21.792903379999998</v>
+        <v>21.79290338</v>
       </c>
       <c r="D14">
-        <v>0.19129127800000001</v>
+        <v>0.191291278</v>
       </c>
       <c r="E14" s="1">
-        <v>1.92E-7</v>
+        <v>1.92e-7</v>
       </c>
       <c r="F14">
         <v>3.365326633</v>
       </c>
       <c r="G14">
-        <v>8.6445140000000007E-3</v>
+        <v>0.008644514</v>
       </c>
       <c r="H14">
-        <v>0.13833413899999999</v>
+        <v>0.138334139</v>
       </c>
       <c r="I14">
-        <v>0.36700083100000003</v>
+        <v>0.367000831</v>
       </c>
       <c r="J14">
-        <v>2.0260103759999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.026010376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26556714.899999999</v>
+        <v>26556714.9</v>
       </c>
       <c r="C15">
-        <v>21.831737019999998</v>
+        <v>21.83173702</v>
       </c>
       <c r="D15">
-        <v>0.17149351500000001</v>
+        <v>0.171493515</v>
       </c>
       <c r="E15" s="1">
-        <v>1.61E-7</v>
+        <v>1.61e-7</v>
       </c>
       <c r="F15">
-        <v>3.3874371860000001</v>
+        <v>3.387437186</v>
       </c>
       <c r="G15">
-        <v>8.9017750000000007E-3</v>
+        <v>0.008901775</v>
       </c>
       <c r="H15">
         <v>0.127936468</v>
       </c>
       <c r="I15">
-        <v>0.40957312000000001</v>
+        <v>0.40957312</v>
       </c>
       <c r="J15">
         <v>2.435583496</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28181163.739999998</v>
+        <v>28181163.74</v>
       </c>
       <c r="C16">
-        <v>21.871549179999999</v>
+        <v>21.87154918</v>
       </c>
       <c r="D16">
-        <v>0.15519068599999999</v>
+        <v>0.155190686</v>
       </c>
       <c r="E16" s="1">
-        <v>1.37E-7</v>
+        <v>1.37e-7</v>
       </c>
       <c r="F16">
-        <v>3.4095477390000002</v>
+        <v>3.409547739</v>
       </c>
       <c r="G16">
-        <v>9.1096560000000007E-3</v>
+        <v>0.009109656</v>
       </c>
       <c r="H16">
         <v>0.118812114</v>
       </c>
       <c r="I16">
-        <v>0.45247375400000001</v>
+        <v>0.452473754</v>
       </c>
       <c r="J16">
-        <v>2.8880572500000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>2.88805725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29784762.809999999</v>
+        <v>29784762.81</v>
       </c>
       <c r="C17">
-        <v>21.912165389999998</v>
+        <v>21.91216539</v>
       </c>
       <c r="D17">
         <v>0.141601268</v>
       </c>
       <c r="E17" s="1">
-        <v>1.18E-7</v>
+        <v>1.18e-7</v>
       </c>
       <c r="F17">
-        <v>3.4316582910000002</v>
+        <v>3.431658291</v>
       </c>
       <c r="G17">
-        <v>9.2765650000000005E-3</v>
+        <v>0.009276565</v>
       </c>
       <c r="H17">
         <v>0.110742802</v>
       </c>
       <c r="I17">
-        <v>0.49543642900000001</v>
+        <v>0.495436429</v>
       </c>
       <c r="J17">
-        <v>3.3834936789999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3.383493679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31366896.870000001</v>
+        <v>31366896.87</v>
       </c>
       <c r="C18">
-        <v>21.953439620000001</v>
+        <v>21.95343962</v>
       </c>
       <c r="D18">
         <v>0.130151352</v>
       </c>
       <c r="E18" s="1">
-        <v>1.03E-7</v>
+        <v>1.03e-7</v>
       </c>
       <c r="F18">
-        <v>3.4537688439999998</v>
+        <v>3.453768844</v>
       </c>
       <c r="G18">
-        <v>9.4092559999999995E-3</v>
+        <v>0.009409256</v>
       </c>
       <c r="H18">
         <v>0.103558518</v>
       </c>
       <c r="I18">
-        <v>0.53822663599999998</v>
+        <v>0.538226636</v>
       </c>
       <c r="J18">
         <v>3.921720315</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1579,310 +1575,310 @@
         <v>32927058.41</v>
       </c>
       <c r="C19">
-        <v>21.995248790000002</v>
+        <v>21.99524879</v>
       </c>
       <c r="D19">
         <v>0.120411794</v>
       </c>
       <c r="E19" s="1">
-        <v>9.0800000000000006E-8</v>
+        <v>9.08e-8</v>
       </c>
       <c r="F19">
-        <v>3.4758793969999999</v>
+        <v>3.475879397</v>
       </c>
       <c r="G19">
-        <v>9.5131850000000004E-3</v>
+        <v>0.009513185</v>
       </c>
       <c r="H19">
-        <v>9.7121464000000005E-2</v>
+        <v>0.097121464</v>
       </c>
       <c r="I19">
-        <v>0.58062212199999996</v>
+        <v>0.580622122</v>
       </c>
       <c r="J19">
-        <v>4.5023424380000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>4.502342438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34464866.140000001</v>
+        <v>34464866.14</v>
       </c>
       <c r="C20">
-        <v>22.037488549999999</v>
+        <v>22.03748855</v>
       </c>
       <c r="D20">
-        <v>0.11205654499999999</v>
+        <v>0.112056545</v>
       </c>
       <c r="E20" s="1">
-        <v>8.05E-8</v>
+        <v>8.05e-8</v>
       </c>
       <c r="F20">
         <v>3.49798995</v>
       </c>
       <c r="G20">
-        <v>9.5928179999999995E-3</v>
+        <v>0.009592818</v>
       </c>
       <c r="H20">
-        <v>9.1323041999999993E-2</v>
+        <v>0.091323042</v>
       </c>
       <c r="I20">
-        <v>0.62243595900000004</v>
+        <v>0.622435959</v>
       </c>
       <c r="J20">
         <v>5.124778396</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35980033.649999999</v>
+        <v>35980033.65</v>
       </c>
       <c r="C21">
-        <v>22.080068470000001</v>
+        <v>22.08006847</v>
       </c>
       <c r="D21">
         <v>0.104834075</v>
       </c>
       <c r="E21" s="1">
-        <v>7.1900000000000002E-8</v>
+        <v>7.19e-8</v>
       </c>
       <c r="F21">
-        <v>3.5201005030000001</v>
+        <v>3.520100503</v>
       </c>
       <c r="G21">
-        <v>9.6514779999999998E-3</v>
+        <v>0.009651478</v>
       </c>
       <c r="H21">
-        <v>8.6074012000000005E-2</v>
+        <v>0.086074012</v>
       </c>
       <c r="I21">
-        <v>0.66349760899999999</v>
+        <v>0.663497609</v>
       </c>
       <c r="J21">
-        <v>5.7882760050000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>5.788276005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37472323.299999997</v>
+        <v>37472323.3</v>
       </c>
       <c r="C22">
         <v>22.12291213</v>
       </c>
       <c r="D22">
-        <v>9.8548058999999993E-2</v>
+        <v>0.098548059</v>
       </c>
       <c r="E22" s="1">
-        <v>6.4700000000000004E-8</v>
+        <v>6.47e-8</v>
       </c>
       <c r="F22">
-        <v>3.5422110550000001</v>
+        <v>3.542211055</v>
       </c>
       <c r="G22">
-        <v>9.6924909999999993E-3</v>
+        <v>0.009692491</v>
       </c>
       <c r="H22">
-        <v>8.1299276000000004E-2</v>
+        <v>0.081299276</v>
       </c>
       <c r="I22">
         <v>0.703648304</v>
       </c>
       <c r="J22">
-        <v>6.4919243089999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6.491924309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38941584.109999999</v>
+        <v>38941584.11</v>
       </c>
       <c r="C23">
-        <v>22.165952409999999</v>
+        <v>22.16595241</v>
       </c>
       <c r="D23">
-        <v>9.3043298999999996E-2</v>
+        <v>0.093043299</v>
       </c>
       <c r="E23" s="1">
-        <v>5.8500000000000001E-8</v>
+        <v>5.85e-8</v>
       </c>
       <c r="F23">
-        <v>3.5643216080000002</v>
+        <v>3.564321608</v>
       </c>
       <c r="G23">
-        <v>9.7180889999999992E-3</v>
+        <v>0.009718089</v>
       </c>
       <c r="H23">
-        <v>7.6939094E-2</v>
+        <v>0.076939094</v>
       </c>
       <c r="I23">
-        <v>0.74276331299999998</v>
+        <v>0.742763313</v>
       </c>
       <c r="J23">
         <v>7.234687622</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>40387764.520000003</v>
+        <v>40387764.52</v>
       </c>
       <c r="C24">
-        <v>22.209130170000002</v>
+        <v>22.20913017</v>
       </c>
       <c r="D24">
-        <v>8.8195806000000002E-2</v>
+        <v>0.088195806</v>
       </c>
       <c r="E24" s="1">
-        <v>5.3300000000000001E-8</v>
+        <v>5.33e-8</v>
       </c>
       <c r="F24">
-        <v>3.5864321609999998</v>
+        <v>3.586432161</v>
       </c>
       <c r="G24">
-        <v>9.7301929999999998E-3</v>
+        <v>0.009730193</v>
       </c>
       <c r="H24">
-        <v>7.2944564000000003E-2</v>
+        <v>0.072944564</v>
       </c>
       <c r="I24">
-        <v>0.78074848900000005</v>
+        <v>0.780748489</v>
       </c>
       <c r="J24">
-        <v>8.0154361099999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.01543611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>41810775.240000002</v>
+        <v>41810775.24</v>
       </c>
       <c r="C25">
-        <v>22.252395669999999</v>
+        <v>22.25239567</v>
       </c>
       <c r="D25">
-        <v>8.3905564000000002E-2</v>
+        <v>0.083905564</v>
       </c>
       <c r="E25" s="1">
-        <v>4.88E-8</v>
+        <v>4.88e-8</v>
       </c>
       <c r="F25">
-        <v>3.6085427139999999</v>
+        <v>3.608542714</v>
       </c>
       <c r="G25">
-        <v>9.7310049999999992E-3</v>
+        <v>0.009731005</v>
       </c>
       <c r="H25">
-        <v>6.9268254000000001E-2</v>
+        <v>0.069268254</v>
       </c>
       <c r="I25">
-        <v>0.81747127600000002</v>
+        <v>0.817471276</v>
       </c>
       <c r="J25">
-        <v>8.8329073860000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8.832907386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>43210630.270000003</v>
+        <v>43210630.27</v>
       </c>
       <c r="C26">
-        <v>22.295703849999999</v>
+        <v>22.29570385</v>
       </c>
       <c r="D26">
-        <v>8.0091123E-2</v>
+        <v>0.080091123</v>
       </c>
       <c r="E26" s="1">
-        <v>4.4799999999999997E-8</v>
+        <v>4.48e-8</v>
       </c>
       <c r="F26">
-        <v>3.6306532659999999</v>
+        <v>3.630653266</v>
       </c>
       <c r="G26">
-        <v>9.7216769999999997E-3</v>
+        <v>0.009721677</v>
       </c>
       <c r="H26">
-        <v>6.5876803999999997E-2</v>
+        <v>0.065876804</v>
       </c>
       <c r="I26">
-        <v>0.85287750100000004</v>
+        <v>0.852877501</v>
       </c>
       <c r="J26">
-        <v>9.6857848870000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9.685784887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>44587370.329999998</v>
+        <v>44587370.33</v>
       </c>
       <c r="C27">
-        <v>22.339014890000001</v>
+        <v>22.33901489</v>
       </c>
       <c r="D27">
-        <v>7.6685591999999997E-2</v>
+        <v>0.076685592</v>
       </c>
       <c r="E27" s="1">
-        <v>4.14E-8</v>
+        <v>4.14e-8</v>
       </c>
       <c r="F27">
         <v>3.652763819</v>
       </c>
       <c r="G27">
-        <v>9.7034519999999996E-3</v>
+        <v>0.009703452</v>
       </c>
       <c r="H27">
-        <v>6.2738497000000004E-2</v>
+        <v>0.062738497</v>
       </c>
       <c r="I27">
-        <v>0.88689590399999996</v>
+        <v>0.886895904</v>
       </c>
       <c r="J27">
         <v>10.57268079</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>45941054.539999999</v>
+        <v>45941054.54</v>
       </c>
       <c r="C28">
-        <v>22.382294569999999</v>
+        <v>22.38229457</v>
       </c>
       <c r="D28">
-        <v>7.3633645999999997E-2</v>
+        <v>0.073633646</v>
       </c>
       <c r="E28" s="1">
-        <v>3.84E-8</v>
+        <v>3.84e-8</v>
       </c>
       <c r="F28">
-        <v>3.6748743720000001</v>
+        <v>3.674874372</v>
       </c>
       <c r="G28">
-        <v>9.6776510000000007E-3</v>
+        <v>0.009677651</v>
       </c>
       <c r="H28">
-        <v>5.9825937000000003E-2</v>
+        <v>0.059825937</v>
       </c>
       <c r="I28">
         <v>0.9194677</v>
@@ -1891,39 +1887,39 @@
         <v>11.49214849</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>47271778.049999997</v>
+        <v>47271778.05</v>
       </c>
       <c r="C29">
         <v>22.42551207</v>
       </c>
       <c r="D29">
-        <v>7.0889216000000005E-2</v>
+        <v>0.070889216</v>
       </c>
       <c r="E29" s="1">
-        <v>3.5800000000000003E-8</v>
+        <v>3.58e-8</v>
       </c>
       <c r="F29">
-        <v>3.6969849250000002</v>
+        <v>3.696984925</v>
       </c>
       <c r="G29">
-        <v>9.6450900000000003E-3</v>
+        <v>0.00964509</v>
       </c>
       <c r="H29">
-        <v>5.7116374999999997E-2</v>
+        <v>0.057116375</v>
       </c>
       <c r="I29">
-        <v>0.95055397100000005</v>
+        <v>0.950553971</v>
       </c>
       <c r="J29">
         <v>12.44270246</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1931,54 +1927,54 @@
         <v>48579640.18</v>
       </c>
       <c r="C30">
-        <v>22.468640570000002</v>
+        <v>22.46864057</v>
       </c>
       <c r="D30">
-        <v>6.8413589999999996E-2</v>
+        <v>0.06841359</v>
       </c>
       <c r="E30" s="1">
-        <v>3.3400000000000001E-8</v>
+        <v>3.34e-8</v>
       </c>
       <c r="F30">
-        <v>3.7190954770000002</v>
+        <v>3.719095477</v>
       </c>
       <c r="G30">
-        <v>9.6067170000000007E-3</v>
+        <v>0.009606717</v>
       </c>
       <c r="H30">
-        <v>5.4588891E-2</v>
+        <v>0.054588891</v>
       </c>
       <c r="I30">
-        <v>0.98011278899999998</v>
+        <v>0.980112789</v>
       </c>
       <c r="J30">
-        <v>13.422815249999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13.42281525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>49864814.990000002</v>
+        <v>49864814.99</v>
       </c>
       <c r="C31">
-        <v>22.511654740000001</v>
+        <v>22.51165474</v>
       </c>
       <c r="D31">
-        <v>6.6174135999999995E-2</v>
+        <v>0.066174136</v>
       </c>
       <c r="E31" s="1">
-        <v>3.1300000000000002E-8</v>
+        <v>3.13e-8</v>
       </c>
       <c r="F31">
-        <v>3.7412060299999998</v>
+        <v>3.74120603</v>
       </c>
       <c r="G31">
-        <v>9.5629010000000004E-3</v>
+        <v>0.009562901</v>
       </c>
       <c r="H31">
-        <v>5.2228188000000002E-2</v>
+        <v>0.052228188</v>
       </c>
       <c r="I31">
         <v>1.008151547</v>
@@ -1987,94 +1983,94 @@
         <v>14.4309668</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>51127445.240000002</v>
+        <v>51127445.24</v>
       </c>
       <c r="C32">
         <v>22.5545334</v>
       </c>
       <c r="D32">
-        <v>6.4143161000000004E-2</v>
+        <v>0.064143161</v>
       </c>
       <c r="E32" s="1">
-        <v>2.9499999999999999E-8</v>
+        <v>2.95e-8</v>
       </c>
       <c r="F32">
-        <v>3.7633165829999999</v>
+        <v>3.763316583</v>
       </c>
       <c r="G32">
-        <v>9.5146050000000006E-3</v>
+        <v>0.009514605</v>
       </c>
       <c r="H32">
-        <v>5.0016809000000002E-2</v>
+        <v>0.050016809</v>
       </c>
       <c r="I32">
-        <v>1.0346301689999999</v>
+        <v>1.034630169</v>
       </c>
       <c r="J32">
         <v>15.46559697</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>52367708.590000004</v>
+        <v>52367708.59</v>
       </c>
       <c r="C33">
-        <v>22.597256789999999</v>
+        <v>22.59725679</v>
       </c>
       <c r="D33">
-        <v>6.2296951000000003E-2</v>
+        <v>0.062296951</v>
       </c>
       <c r="E33" s="1">
-        <v>2.7800000000000001E-8</v>
+        <v>2.78e-8</v>
       </c>
       <c r="F33">
         <v>3.785427136</v>
       </c>
       <c r="G33">
-        <v>9.4621789999999994E-3</v>
+        <v>0.009462179</v>
       </c>
       <c r="H33">
-        <v>4.7942011999999999E-2</v>
+        <v>0.047942012</v>
       </c>
       <c r="I33">
         <v>1.059552976</v>
       </c>
       <c r="J33">
-        <v>16.525149939999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16.52514994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>53585762.140000001</v>
+        <v>53585762.14</v>
       </c>
       <c r="C34">
-        <v>22.639808550000001</v>
+        <v>22.63980855</v>
       </c>
       <c r="D34">
-        <v>6.0615204999999998E-2</v>
+        <v>0.060615205</v>
       </c>
       <c r="E34" s="1">
-        <v>2.6300000000000001E-8</v>
+        <v>2.63e-8</v>
       </c>
       <c r="F34">
         <v>3.807537688</v>
       </c>
       <c r="G34">
-        <v>9.4064000000000005E-3</v>
+        <v>0.0094064</v>
       </c>
       <c r="H34">
-        <v>4.5990547999999999E-2</v>
+        <v>0.045990548</v>
       </c>
       <c r="I34">
         <v>1.082902649</v>
@@ -2083,135 +2079,135 @@
         <v>17.60805259</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>54781820.590000004</v>
+        <v>54781820.59</v>
       </c>
       <c r="C35">
         <v>22.68217301</v>
       </c>
       <c r="D35">
-        <v>5.9080440999999997E-2</v>
+        <v>0.059080441</v>
       </c>
       <c r="E35" s="1">
-        <v>2.4900000000000001E-8</v>
+        <v>2.49e-8</v>
       </c>
       <c r="F35">
-        <v>3.8296482410000001</v>
+        <v>3.829648241</v>
       </c>
       <c r="G35">
-        <v>9.3474509999999997E-3</v>
+        <v>0.009347451</v>
       </c>
       <c r="H35">
-        <v>4.4153579999999998E-2</v>
+        <v>0.04415358</v>
       </c>
       <c r="I35">
-        <v>1.1047145350000001</v>
+        <v>1.104714535</v>
       </c>
       <c r="J35">
         <v>18.71276713</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>55956066.890000001</v>
+        <v>55956066.89</v>
       </c>
       <c r="C36">
         <v>22.72433697</v>
       </c>
       <c r="D36">
-        <v>5.7677526999999999E-2</v>
+        <v>0.057677527</v>
       </c>
       <c r="E36" s="1">
-        <v>2.37E-8</v>
+        <v>2.37e-8</v>
       </c>
       <c r="F36">
-        <v>3.8517587940000002</v>
+        <v>3.851758794</v>
       </c>
       <c r="G36">
-        <v>9.2858920000000005E-3</v>
+        <v>0.009285892</v>
       </c>
       <c r="H36">
-        <v>4.2420109999999997E-2</v>
+        <v>0.04242011</v>
       </c>
       <c r="I36">
-        <v>1.1249734689999999</v>
+        <v>1.124973469</v>
       </c>
       <c r="J36">
         <v>19.8377406</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>57108775.270000003</v>
+        <v>57108775.27</v>
       </c>
       <c r="C37">
         <v>22.76628629</v>
       </c>
       <c r="D37">
-        <v>5.6393249999999999E-2</v>
+        <v>0.05639325</v>
       </c>
       <c r="E37" s="1">
-        <v>2.25E-8</v>
+        <v>2.25e-8</v>
       </c>
       <c r="F37">
-        <v>3.8738693469999999</v>
+        <v>3.873869347</v>
       </c>
       <c r="G37">
-        <v>9.2215390000000008E-3</v>
+        <v>0.009221539</v>
       </c>
       <c r="H37">
-        <v>4.0784674999999999E-2</v>
+        <v>0.040784675</v>
       </c>
       <c r="I37">
-        <v>1.1437518600000001</v>
+        <v>1.14375186</v>
       </c>
       <c r="J37">
-        <v>20.981492459999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>20.98149246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>58240103.670000002</v>
+        <v>58240103.67</v>
       </c>
       <c r="C38">
-        <v>22.808011459999999</v>
+        <v>22.80801146</v>
       </c>
       <c r="D38">
-        <v>5.5216068E-2</v>
+        <v>0.055216068</v>
       </c>
       <c r="E38" s="1">
-        <v>2.1500000000000001E-8</v>
+        <v>2.15e-8</v>
       </c>
       <c r="F38">
-        <v>3.8959798989999999</v>
+        <v>3.895979899</v>
       </c>
       <c r="G38">
-        <v>9.155425E-3</v>
+        <v>0.009155425</v>
       </c>
       <c r="H38">
-        <v>3.9235309000000003E-2</v>
+        <v>0.039235309</v>
       </c>
       <c r="I38">
-        <v>1.1609891910000001</v>
+        <v>1.160989191</v>
       </c>
       <c r="J38">
-        <v>22.142481650000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22.14248165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2219,63 +2215,63 @@
         <v>59350294.75</v>
       </c>
       <c r="C39">
-        <v>22.849503649999999</v>
+        <v>22.84950365</v>
       </c>
       <c r="D39">
-        <v>5.4135981999999999E-2</v>
+        <v>0.054135982</v>
       </c>
       <c r="E39" s="1">
-        <v>2.0599999999999999E-8</v>
+        <v>2.06e-8</v>
       </c>
       <c r="F39">
-        <v>3.9180904519999999</v>
+        <v>3.918090452</v>
       </c>
       <c r="G39">
-        <v>9.0877089999999994E-3</v>
+        <v>0.009087709</v>
       </c>
       <c r="H39">
-        <v>3.7768050999999997E-2</v>
+        <v>0.037768051</v>
       </c>
       <c r="I39">
-        <v>1.1767704109999999</v>
+        <v>1.176770411</v>
       </c>
       <c r="J39">
         <v>23.31925206</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>60439631.159999996</v>
+        <v>60439631.16</v>
       </c>
       <c r="C40">
         <v>22.89075081</v>
       </c>
       <c r="D40">
-        <v>5.3144027000000003E-2</v>
+        <v>0.053144027</v>
       </c>
       <c r="E40" s="1">
-        <v>1.9700000000000001E-8</v>
+        <v>1.97e-8</v>
       </c>
       <c r="F40">
         <v>3.940201005</v>
       </c>
       <c r="G40">
-        <v>9.0177009999999995E-3</v>
+        <v>0.009017701</v>
       </c>
       <c r="H40">
-        <v>3.6377899999999998E-2</v>
+        <v>0.0363779</v>
       </c>
       <c r="I40">
         <v>1.191132549</v>
       </c>
       <c r="J40">
-        <v>24.510384609999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>24.51038461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2283,150 +2279,150 @@
         <v>61508289.68</v>
       </c>
       <c r="C41">
-        <v>22.931747810000001</v>
+        <v>22.93174781</v>
       </c>
       <c r="D41">
-        <v>5.2232398999999999E-2</v>
+        <v>0.052232399</v>
       </c>
       <c r="E41" s="1">
-        <v>1.89E-8</v>
+        <v>1.89e-8</v>
       </c>
       <c r="F41">
-        <v>3.9623115580000001</v>
+        <v>3.962311558</v>
       </c>
       <c r="G41">
-        <v>8.9469219999999995E-3</v>
+        <v>0.008946922</v>
       </c>
       <c r="H41">
-        <v>3.5055639999999999E-2</v>
+        <v>0.03505564</v>
       </c>
       <c r="I41">
-        <v>1.2040457680000001</v>
+        <v>1.204045768</v>
       </c>
       <c r="J41">
         <v>25.71443038</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>62556507.340000004</v>
+        <v>62556507.34</v>
       </c>
       <c r="C42">
-        <v>22.972488009999999</v>
+        <v>22.97248801</v>
       </c>
       <c r="D42">
-        <v>5.1394178999999998E-2</v>
+        <v>0.051394179</v>
       </c>
       <c r="E42" s="1">
-        <v>1.8200000000000001E-8</v>
+        <v>1.82e-8</v>
       </c>
       <c r="F42">
-        <v>3.9844221110000002</v>
+        <v>3.984422111</v>
       </c>
       <c r="G42">
-        <v>8.875048E-3</v>
+        <v>0.008875048</v>
       </c>
       <c r="H42">
-        <v>3.3798225000000001E-2</v>
+        <v>0.033798225</v>
       </c>
       <c r="I42">
-        <v>1.2155786180000001</v>
+        <v>1.215578618</v>
       </c>
       <c r="J42">
-        <v>26.930008990000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26.93000899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>63584589.280000001</v>
+        <v>63584589.28</v>
       </c>
       <c r="C43">
-        <v>23.012962659999999</v>
+        <v>23.01296266</v>
       </c>
       <c r="D43">
-        <v>5.0623178999999997E-2</v>
+        <v>0.050623179</v>
       </c>
       <c r="E43" s="1">
-        <v>1.7500000000000001E-8</v>
+        <v>1.75e-8</v>
       </c>
       <c r="F43">
-        <v>4.0065326629999998</v>
+        <v>4.006532663</v>
       </c>
       <c r="G43">
-        <v>8.8016269999999994E-3</v>
+        <v>0.008801627</v>
       </c>
       <c r="H43">
-        <v>3.2603181000000002E-2</v>
+        <v>0.032603181</v>
       </c>
       <c r="I43">
-        <v>1.2258083550000001</v>
+        <v>1.225808355</v>
       </c>
       <c r="J43">
         <v>28.15581735</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>64592738.159999996</v>
+        <v>64592738.16</v>
       </c>
       <c r="C44">
-        <v>23.053167200000001</v>
+        <v>23.0531672</v>
       </c>
       <c r="D44">
-        <v>4.9913893000000001E-2</v>
+        <v>0.049913893</v>
       </c>
       <c r="E44" s="1">
-        <v>1.6899999999999999E-8</v>
+        <v>1.69e-8</v>
       </c>
       <c r="F44">
-        <v>4.0286432159999999</v>
+        <v>4.028643216</v>
       </c>
       <c r="G44">
-        <v>8.7275779999999997E-3</v>
+        <v>0.008727578</v>
       </c>
       <c r="H44">
-        <v>3.1463013999999997E-2</v>
+        <v>0.031463014</v>
       </c>
       <c r="I44">
-        <v>1.2346977830000001</v>
+        <v>1.234697783</v>
       </c>
       <c r="J44">
-        <v>29.390515130000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29.39051513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>65581217.909999996</v>
+        <v>65581217.91</v>
       </c>
       <c r="C45">
-        <v>23.093097060000002</v>
+        <v>23.09309706</v>
       </c>
       <c r="D45">
-        <v>4.9261451999999997E-2</v>
+        <v>0.049261452</v>
       </c>
       <c r="E45" s="1">
-        <v>1.63E-8</v>
+        <v>1.63e-8</v>
       </c>
       <c r="F45">
-        <v>4.0507537689999999</v>
+        <v>4.050753769</v>
       </c>
       <c r="G45">
-        <v>8.6528969999999997E-3</v>
+        <v>0.008652897</v>
       </c>
       <c r="H45">
-        <v>3.0375869E-2</v>
+        <v>0.030375869</v>
       </c>
       <c r="I45">
         <v>1.242337952</v>
@@ -2435,71 +2431,71 @@
         <v>30.63285308</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>66550256.850000001</v>
+        <v>66550256.85</v>
       </c>
       <c r="C46">
-        <v>23.132749919999998</v>
+        <v>23.13274992</v>
       </c>
       <c r="D46">
-        <v>4.8661511999999997E-2</v>
+        <v>0.048661512</v>
       </c>
       <c r="E46" s="1">
-        <v>1.5799999999999999E-8</v>
+        <v>1.58e-8</v>
       </c>
       <c r="F46">
         <v>4.072864322</v>
       </c>
       <c r="G46">
-        <v>8.5780769999999999E-3</v>
+        <v>0.008578077</v>
       </c>
       <c r="H46">
-        <v>2.9337176E-2</v>
+        <v>0.029337176</v>
       </c>
       <c r="I46">
-        <v>1.2487436249999999</v>
+        <v>1.248743625</v>
       </c>
       <c r="J46">
         <v>31.88159671</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>67500151.069999993</v>
+        <v>67500151.07</v>
       </c>
       <c r="C47">
-        <v>23.172116320000001</v>
+        <v>23.17211632</v>
       </c>
       <c r="D47">
-        <v>4.8109974999999999E-2</v>
+        <v>0.048109975</v>
       </c>
       <c r="E47" s="1">
-        <v>1.5300000000000001E-8</v>
+        <v>1.53e-8</v>
       </c>
       <c r="F47">
         <v>4.094974874</v>
       </c>
       <c r="G47">
-        <v>8.5015739999999996E-3</v>
+        <v>0.008501574</v>
       </c>
       <c r="H47">
-        <v>2.8345812000000001E-2</v>
+        <v>0.028345812</v>
       </c>
       <c r="I47">
         <v>1.253966344</v>
       </c>
       <c r="J47">
-        <v>33.135563050000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+        <v>33.13556305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2507,223 +2503,223 @@
         <v>68431127.5</v>
       </c>
       <c r="C48">
-        <v>23.211197720000001</v>
+        <v>23.21119772</v>
       </c>
       <c r="D48">
-        <v>4.7603444000000002E-2</v>
+        <v>0.047603444</v>
       </c>
       <c r="E48" s="1">
-        <v>1.48E-8</v>
+        <v>1.48e-8</v>
       </c>
       <c r="F48">
-        <v>4.1170854270000001</v>
+        <v>4.117085427</v>
       </c>
       <c r="G48">
-        <v>8.4257519999999999E-3</v>
+        <v>0.008425752</v>
       </c>
       <c r="H48">
-        <v>2.7396787999999998E-2</v>
+        <v>0.027396788</v>
       </c>
       <c r="I48">
-        <v>1.2580516429999999</v>
+        <v>1.258051643</v>
       </c>
       <c r="J48">
-        <v>34.393614700000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+        <v>34.3936147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>69343394.489999995</v>
+        <v>69343394.49</v>
       </c>
       <c r="C49">
-        <v>23.249990870000001</v>
+        <v>23.24999087</v>
       </c>
       <c r="D49">
-        <v>4.7138625000000003E-2</v>
+        <v>0.047138625</v>
       </c>
       <c r="E49" s="1">
-        <v>1.44E-8</v>
+        <v>1.44e-8</v>
       </c>
       <c r="F49">
-        <v>4.1391959800000002</v>
+        <v>4.13919598</v>
       </c>
       <c r="G49">
-        <v>8.3495879999999998E-3</v>
+        <v>0.008349588</v>
       </c>
       <c r="H49">
-        <v>2.6486958000000001E-2</v>
+        <v>0.026486958</v>
       </c>
       <c r="I49">
-        <v>1.2609839519999999</v>
+        <v>1.260983952</v>
       </c>
       <c r="J49">
-        <v>35.654598649999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+        <v>35.65459865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>70237281.180000007</v>
+        <v>70237281.18</v>
       </c>
       <c r="C50">
-        <v>23.288491220000001</v>
+        <v>23.28849122</v>
       </c>
       <c r="D50">
-        <v>4.6712683999999997E-2</v>
+        <v>0.046712684</v>
       </c>
       <c r="E50" s="1">
-        <v>1.4E-8</v>
+        <v>1.4e-8</v>
       </c>
       <c r="F50">
-        <v>4.1613065330000003</v>
+        <v>4.161306533</v>
       </c>
       <c r="G50">
-        <v>8.2728049999999994E-3</v>
+        <v>0.008272805</v>
       </c>
       <c r="H50">
-        <v>2.5617396000000001E-2</v>
+        <v>0.025617396</v>
       </c>
       <c r="I50">
-        <v>1.2629198779999999</v>
+        <v>1.262919878</v>
       </c>
       <c r="J50">
-        <v>36.917518530000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+        <v>36.91751853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>71112956.010000005</v>
+        <v>71112956.01</v>
       </c>
       <c r="C51">
-        <v>23.326699090000002</v>
+        <v>23.32669909</v>
       </c>
       <c r="D51">
-        <v>4.6322950000000002E-2</v>
+        <v>0.04632295</v>
       </c>
       <c r="E51" s="1">
-        <v>1.3599999999999999E-8</v>
+        <v>1.36e-8</v>
       </c>
       <c r="F51">
-        <v>4.1834170850000003</v>
+        <v>4.183417085</v>
       </c>
       <c r="G51">
-        <v>8.1964470000000008E-3</v>
+        <v>0.008196447</v>
       </c>
       <c r="H51">
-        <v>2.4781237000000001E-2</v>
+        <v>0.024781237</v>
       </c>
       <c r="I51">
-        <v>1.2637628649999999</v>
+        <v>1.263762865</v>
       </c>
       <c r="J51">
-        <v>38.181281390000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+        <v>38.18128139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>71970760.879999995</v>
+        <v>71970760.88</v>
       </c>
       <c r="C52">
-        <v>23.364608969999999</v>
+        <v>23.36460897</v>
       </c>
       <c r="D52">
-        <v>4.5967043999999999E-2</v>
+        <v>0.045967044</v>
       </c>
       <c r="E52" s="1">
-        <v>1.3200000000000001E-8</v>
+        <v>1.32e-8</v>
       </c>
       <c r="F52">
-        <v>4.2055276380000004</v>
+        <v>4.205527638</v>
       </c>
       <c r="G52">
-        <v>8.1192629999999998E-3</v>
+        <v>0.008119263</v>
       </c>
       <c r="H52">
-        <v>2.3981365000000001E-2</v>
+        <v>0.023981365</v>
       </c>
       <c r="I52">
         <v>1.263692397</v>
       </c>
       <c r="J52">
-        <v>39.444973789999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+        <v>39.44497379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>72810864.030000001</v>
+        <v>72810864.03</v>
       </c>
       <c r="C53">
-        <v>23.402223540000001</v>
+        <v>23.40222354</v>
       </c>
       <c r="D53">
-        <v>4.5642834E-2</v>
+        <v>0.045642834</v>
       </c>
       <c r="E53" s="1">
-        <v>1.29E-8</v>
+        <v>1.29e-8</v>
       </c>
       <c r="F53">
-        <v>4.2276381909999996</v>
+        <v>4.227638191</v>
       </c>
       <c r="G53">
-        <v>8.0430080000000008E-3</v>
+        <v>0.008043008</v>
       </c>
       <c r="H53">
-        <v>2.3210996000000001E-2</v>
+        <v>0.023210996</v>
       </c>
       <c r="I53">
         <v>1.262626155</v>
       </c>
       <c r="J53">
-        <v>40.707599940000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>40.70759994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>73633543.489999995</v>
+        <v>73633543.49</v>
       </c>
       <c r="C54">
-        <v>23.439538559999999</v>
+        <v>23.43953856</v>
       </c>
       <c r="D54">
-        <v>4.5348287000000001E-2</v>
+        <v>0.045348287</v>
       </c>
       <c r="E54" s="1">
-        <v>1.26E-8</v>
+        <v>1.26e-8</v>
       </c>
       <c r="F54">
-        <v>4.2497487439999997</v>
+        <v>4.249748744</v>
       </c>
       <c r="G54">
-        <v>7.9661899999999997E-3</v>
+        <v>0.00796619</v>
       </c>
       <c r="H54">
-        <v>2.2471474000000002E-2</v>
+        <v>0.022471474</v>
       </c>
       <c r="I54">
         <v>1.260664502</v>
       </c>
       <c r="J54">
-        <v>41.968264439999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+        <v>41.96826444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2731,22 +2727,22 @@
         <v>74439032.25</v>
       </c>
       <c r="C55">
-        <v>23.476556599999999</v>
+        <v>23.4765566</v>
       </c>
       <c r="D55">
-        <v>4.5081683999999997E-2</v>
+        <v>0.045081684</v>
       </c>
       <c r="E55" s="1">
-        <v>1.2299999999999999E-8</v>
+        <v>1.23e-8</v>
       </c>
       <c r="F55">
-        <v>4.2718592959999997</v>
+        <v>4.271859296</v>
       </c>
       <c r="G55">
-        <v>7.8902690000000001E-3</v>
+        <v>0.007890269</v>
       </c>
       <c r="H55">
-        <v>2.1759939999999998E-2</v>
+        <v>0.02175994</v>
       </c>
       <c r="I55">
         <v>1.257857765</v>
@@ -2755,350 +2751,350 @@
         <v>43.22612221</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>75227631.459999993</v>
+        <v>75227631.46</v>
       </c>
       <c r="C56">
-        <v>23.513271710000001</v>
+        <v>23.51327171</v>
       </c>
       <c r="D56">
-        <v>4.4841288999999999E-2</v>
+        <v>0.044841289</v>
       </c>
       <c r="E56" s="1">
-        <v>1.2E-8</v>
+        <v>1.2e-8</v>
       </c>
       <c r="F56">
-        <v>4.2939698489999998</v>
+        <v>4.293969849</v>
       </c>
       <c r="G56">
-        <v>7.8134229999999999E-3</v>
+        <v>0.007813423</v>
       </c>
       <c r="H56">
-        <v>2.1076734E-2</v>
+        <v>0.021076734</v>
       </c>
       <c r="I56">
         <v>1.25424369</v>
       </c>
       <c r="J56">
-        <v>44.480365900000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>44.4803659</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>75999493.849999994</v>
+        <v>75999493.85</v>
       </c>
       <c r="C57">
         <v>23.54968852</v>
       </c>
       <c r="D57">
-        <v>4.4625640000000001E-2</v>
+        <v>0.04462564</v>
       </c>
       <c r="E57" s="1">
-        <v>1.18E-8</v>
+        <v>1.18e-8</v>
       </c>
       <c r="F57">
-        <v>4.3160804019999999</v>
+        <v>4.316080402</v>
       </c>
       <c r="G57">
-        <v>7.7378969999999997E-3</v>
+        <v>0.007737897</v>
       </c>
       <c r="H57">
-        <v>2.0416508999999999E-2</v>
+        <v>0.020416509</v>
       </c>
       <c r="I57">
-        <v>1.2497853109999999</v>
+        <v>1.249785311</v>
       </c>
       <c r="J57">
-        <v>45.730151210000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+        <v>45.73015121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>76754960.069999993</v>
+        <v>76754960.07</v>
       </c>
       <c r="C58">
         <v>23.58580195</v>
       </c>
       <c r="D58">
-        <v>4.4433331E-2</v>
+        <v>0.044433331</v>
       </c>
       <c r="E58" s="1">
-        <v>1.15E-8</v>
+        <v>1.15e-8</v>
       </c>
       <c r="F58">
         <v>4.338190955</v>
       </c>
       <c r="G58">
-        <v>7.661625E-3</v>
+        <v>0.007661625</v>
       </c>
       <c r="H58">
-        <v>1.9782983000000001E-2</v>
+        <v>0.019782983</v>
       </c>
       <c r="I58">
         <v>1.244649906</v>
       </c>
       <c r="J58">
-        <v>46.974801120000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+        <v>46.97480112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>77494176.980000004</v>
+        <v>77494176.98</v>
       </c>
       <c r="C59">
-        <v>23.621615909999999</v>
+        <v>23.62161591</v>
       </c>
       <c r="D59">
-        <v>4.4263063999999998E-2</v>
+        <v>0.044263064</v>
       </c>
       <c r="E59" s="1">
-        <v>1.13E-8</v>
+        <v>1.13e-8</v>
       </c>
       <c r="F59">
         <v>4.360301508</v>
       </c>
       <c r="G59">
-        <v>7.5865159999999997E-3</v>
+        <v>0.007586516</v>
       </c>
       <c r="H59">
-        <v>1.9169868E-2</v>
+        <v>0.019169868</v>
       </c>
       <c r="I59">
         <v>1.238733292</v>
       </c>
       <c r="J59">
-        <v>48.213534410000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>48.21353441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>78217453.480000004</v>
+        <v>78217453.48</v>
       </c>
       <c r="C60">
         <v>23.65712744</v>
       </c>
       <c r="D60">
-        <v>4.4113697E-2</v>
+        <v>0.044113697</v>
       </c>
       <c r="E60" s="1">
-        <v>1.11E-8</v>
+        <v>1.11e-8</v>
       </c>
       <c r="F60">
-        <v>4.3824120600000001</v>
+        <v>4.38241206</v>
       </c>
       <c r="G60">
-        <v>7.5111020000000004E-3</v>
+        <v>0.007511102</v>
       </c>
       <c r="H60">
-        <v>1.8580296999999999E-2</v>
+        <v>0.018580297</v>
       </c>
       <c r="I60">
-        <v>1.2321979249999999</v>
+        <v>1.232197925</v>
       </c>
       <c r="J60">
-        <v>49.445732339999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>49.44573234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>78924976.620000005</v>
+        <v>78924976.62</v>
       </c>
       <c r="C61">
-        <v>23.692339860000001</v>
+        <v>23.69233986</v>
       </c>
       <c r="D61">
-        <v>4.3984179999999998E-2</v>
+        <v>0.04398418</v>
       </c>
       <c r="E61" s="1">
-        <v>1.09E-8</v>
+        <v>1.09e-8</v>
       </c>
       <c r="F61">
-        <v>4.4045226130000001</v>
+        <v>4.404522613</v>
       </c>
       <c r="G61">
-        <v>7.4367139999999997E-3</v>
+        <v>0.007436714</v>
       </c>
       <c r="H61">
-        <v>1.8010094000000001E-2</v>
+        <v>0.018010094</v>
       </c>
       <c r="I61">
         <v>1.22499413</v>
       </c>
       <c r="J61">
-        <v>50.670726469999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>50.67072647</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>79617010.030000001</v>
+        <v>79617010.03</v>
       </c>
       <c r="C62">
-        <v>23.727249579999999</v>
+        <v>23.72724958</v>
       </c>
       <c r="D62">
-        <v>4.3873428999999999E-2</v>
+        <v>0.043873429</v>
       </c>
       <c r="E62" s="1">
-        <v>1.07E-8</v>
+        <v>1.07e-8</v>
       </c>
       <c r="F62">
-        <v>4.4266331660000002</v>
+        <v>4.426633166</v>
       </c>
       <c r="G62">
-        <v>7.3618809999999998E-3</v>
+        <v>0.007361881</v>
       </c>
       <c r="H62">
-        <v>1.7460272999999998E-2</v>
+        <v>0.017460273</v>
       </c>
       <c r="I62">
-        <v>1.2171803489999999</v>
+        <v>1.217180349</v>
       </c>
       <c r="J62">
-        <v>51.887906809999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>51.88790681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>80293768.450000003</v>
+        <v>80293768.45</v>
       </c>
       <c r="C63">
-        <v>23.761860209999998</v>
+        <v>23.76186021</v>
       </c>
       <c r="D63">
-        <v>4.3780592E-2</v>
+        <v>0.043780592</v>
       </c>
       <c r="E63" s="1">
-        <v>1.05E-8</v>
+        <v>1.05e-8</v>
       </c>
       <c r="F63">
-        <v>4.4487437190000003</v>
+        <v>4.448743719</v>
       </c>
       <c r="G63">
-        <v>7.2881220000000002E-3</v>
+        <v>0.007288122</v>
       </c>
       <c r="H63">
-        <v>1.6928703999999999E-2</v>
+        <v>0.016928704</v>
       </c>
       <c r="I63">
-        <v>1.2088066790000001</v>
+        <v>1.208806679</v>
       </c>
       <c r="J63">
-        <v>53.096713489999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53.09671349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>80955482.689999998</v>
+        <v>80955482.69</v>
       </c>
       <c r="C64">
-        <v>23.796171879999999</v>
+        <v>23.79617188</v>
       </c>
       <c r="D64">
-        <v>4.3704804E-2</v>
+        <v>0.043704804</v>
       </c>
       <c r="E64" s="1">
-        <v>1.03E-8</v>
+        <v>1.03e-8</v>
       </c>
       <c r="F64">
-        <v>4.4708542710000003</v>
+        <v>4.470854271</v>
       </c>
       <c r="G64">
-        <v>7.2146989999999998E-3</v>
+        <v>0.007214699</v>
       </c>
       <c r="H64">
-        <v>1.6414970000000001E-2</v>
+        <v>0.01641497</v>
       </c>
       <c r="I64">
         <v>1.199890965</v>
       </c>
       <c r="J64">
-        <v>54.296604459999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>54.29660446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>81602385.079999998</v>
+        <v>81602385.08</v>
       </c>
       <c r="C65">
-        <v>23.830184209999999</v>
+        <v>23.83018421</v>
       </c>
       <c r="D65">
-        <v>4.3645257E-2</v>
+        <v>0.043645257</v>
       </c>
       <c r="E65" s="1">
-        <v>1.0099999999999999E-8</v>
+        <v>1.01e-8</v>
       </c>
       <c r="F65">
-        <v>4.4929648240000004</v>
+        <v>4.492964824</v>
       </c>
       <c r="G65">
-        <v>7.1414970000000001E-3</v>
+        <v>0.007141497</v>
       </c>
       <c r="H65">
-        <v>1.5918333999999999E-2</v>
+        <v>0.015918334</v>
       </c>
       <c r="I65">
-        <v>1.1904606019999999</v>
+        <v>1.190460602</v>
       </c>
       <c r="J65">
-        <v>55.487065059999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+        <v>55.48706506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>82234673.640000001</v>
+        <v>82234673.64</v>
       </c>
       <c r="C66">
-        <v>23.863899750000002</v>
+        <v>23.86389975</v>
       </c>
       <c r="D66">
-        <v>4.3601224000000001E-2</v>
+        <v>0.043601224</v>
       </c>
       <c r="E66" s="1">
-        <v>9.9900000000000005E-9</v>
+        <v>9.99e-9</v>
       </c>
       <c r="F66">
-        <v>4.5150753769999996</v>
+        <v>4.515075377</v>
       </c>
       <c r="G66">
-        <v>7.069128E-3</v>
+        <v>0.007069128</v>
       </c>
       <c r="H66">
-        <v>1.543724E-2</v>
+        <v>0.01543724</v>
       </c>
       <c r="I66">
         <v>1.180537076</v>
@@ -3107,94 +3103,94 @@
         <v>56.66760214</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>82852616.549999997</v>
+        <v>82852616.55</v>
       </c>
       <c r="C67">
-        <v>23.897317130000001</v>
+        <v>23.89731713</v>
       </c>
       <c r="D67">
-        <v>4.3572028999999998E-2</v>
+        <v>0.043572029</v>
       </c>
       <c r="E67" s="1">
-        <v>9.8400000000000008E-9</v>
+        <v>9.84e-9</v>
       </c>
       <c r="F67">
-        <v>4.5371859299999997</v>
+        <v>4.53718593</v>
       </c>
       <c r="G67">
-        <v>6.9967629999999996E-3</v>
+        <v>0.006996763</v>
       </c>
       <c r="H67">
-        <v>1.4972723E-2</v>
+        <v>0.014972723</v>
       </c>
       <c r="I67">
         <v>1.170198909</v>
       </c>
       <c r="J67">
-        <v>57.837801040000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>57.83780104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>83456410.900000006</v>
+        <v>83456410.9</v>
       </c>
       <c r="C68">
         <v>23.93043819</v>
       </c>
       <c r="D68">
-        <v>4.3557036E-2</v>
+        <v>0.043557036</v>
       </c>
       <c r="E68" s="1">
-        <v>9.6999999999999992E-9</v>
+        <v>9.7e-9</v>
       </c>
       <c r="F68">
-        <v>4.5592964819999997</v>
+        <v>4.559296482</v>
       </c>
       <c r="G68">
-        <v>6.9250750000000002E-3</v>
+        <v>0.006925075</v>
       </c>
       <c r="H68">
-        <v>1.4522418E-2</v>
+        <v>0.014522418</v>
       </c>
       <c r="I68">
-        <v>1.1594209099999999</v>
+        <v>1.15942091</v>
       </c>
       <c r="J68">
-        <v>58.997221949999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+        <v>58.99722195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>84046295.739999995</v>
+        <v>84046295.74</v>
       </c>
       <c r="C69">
         <v>23.96326294</v>
       </c>
       <c r="D69">
-        <v>4.3555657999999997E-2</v>
+        <v>0.043555658</v>
       </c>
       <c r="E69" s="1">
-        <v>9.5599999999999992E-9</v>
+        <v>9.56e-9</v>
       </c>
       <c r="F69">
-        <v>4.5814070349999998</v>
+        <v>4.581407035</v>
       </c>
       <c r="G69">
-        <v>6.8536700000000001E-3</v>
+        <v>0.00685367</v>
       </c>
       <c r="H69">
-        <v>1.4086749000000001E-2</v>
+        <v>0.014086749</v>
       </c>
       <c r="I69">
         <v>1.148265783</v>
@@ -3203,487 +3199,487 @@
         <v>60.14548774</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>84622414.109999999</v>
+        <v>84622414.11</v>
       </c>
       <c r="C70">
-        <v>23.995796760000001</v>
+        <v>23.99579676</v>
       </c>
       <c r="D70">
-        <v>4.3567351999999997E-2</v>
+        <v>0.043567352</v>
       </c>
       <c r="E70" s="1">
-        <v>9.4400000000000005E-9</v>
+        <v>9.44e-9</v>
       </c>
       <c r="F70">
-        <v>4.6035175879999999</v>
+        <v>4.603517588</v>
       </c>
       <c r="G70">
-        <v>6.783669E-3</v>
+        <v>0.006783669</v>
       </c>
       <c r="H70">
-        <v>1.3662880000000001E-2</v>
+        <v>0.01366288</v>
       </c>
       <c r="I70">
         <v>1.136699854</v>
       </c>
       <c r="J70">
-        <v>61.282187589999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>61.28218759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>85185050.670000002</v>
+        <v>85185050.67</v>
       </c>
       <c r="C71">
         <v>24.02803625</v>
       </c>
       <c r="D71">
-        <v>4.3591594999999997E-2</v>
+        <v>0.043591595</v>
       </c>
       <c r="E71" s="1">
-        <v>9.3100000000000003E-9</v>
+        <v>9.31e-9</v>
       </c>
       <c r="F71">
         <v>4.625628141</v>
       </c>
       <c r="G71">
-        <v>6.7132299999999997E-3</v>
+        <v>0.00671323</v>
       </c>
       <c r="H71">
-        <v>1.3253663000000001E-2</v>
+        <v>0.013253663</v>
       </c>
       <c r="I71">
-        <v>1.1248356319999999</v>
+        <v>1.124835632</v>
       </c>
       <c r="J71">
-        <v>62.407023219999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+        <v>62.40702322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>85734389.640000001</v>
+        <v>85734389.64</v>
       </c>
       <c r="C72">
         <v>24.05998438</v>
       </c>
       <c r="D72">
-        <v>4.3627916000000003E-2</v>
+        <v>0.043627916</v>
       </c>
       <c r="E72" s="1">
-        <v>9.1999999999999997E-9</v>
+        <v>9.2e-9</v>
       </c>
       <c r="F72">
         <v>4.647738693</v>
       </c>
       <c r="G72">
-        <v>6.6436810000000002E-3</v>
+        <v>0.006643681</v>
       </c>
       <c r="H72">
-        <v>1.2856223999999999E-2</v>
+        <v>0.012856224</v>
       </c>
       <c r="I72">
         <v>1.112641167</v>
       </c>
       <c r="J72">
-        <v>63.519664390000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>63.51966439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>86270659.950000003</v>
+        <v>86270659.95</v>
       </c>
       <c r="C73">
-        <v>24.091641030000002</v>
+        <v>24.09164103</v>
       </c>
       <c r="D73">
-        <v>4.3675866000000001E-2</v>
+        <v>0.043675866</v>
       </c>
       <c r="E73" s="1">
-        <v>9.0900000000000007E-9</v>
+        <v>9.09e-9</v>
       </c>
       <c r="F73">
-        <v>4.6698492460000001</v>
+        <v>4.669849246</v>
       </c>
       <c r="G73">
-        <v>6.574369E-3</v>
+        <v>0.006574369</v>
       </c>
       <c r="H73">
-        <v>1.2471158E-2</v>
+        <v>0.012471158</v>
       </c>
       <c r="I73">
-        <v>1.1001668490000001</v>
+        <v>1.100166849</v>
       </c>
       <c r="J73">
-        <v>64.619831239999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+        <v>64.61983124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>86794012.900000006</v>
+        <v>86794012.9</v>
       </c>
       <c r="C74">
         <v>24.12301012</v>
       </c>
       <c r="D74">
-        <v>4.3735011999999997E-2</v>
+        <v>0.043735012</v>
       </c>
       <c r="E74" s="1">
-        <v>8.98E-9</v>
+        <v>8.98e-9</v>
       </c>
       <c r="F74">
-        <v>4.6919597990000002</v>
+        <v>4.691959799</v>
       </c>
       <c r="G74">
-        <v>6.506136E-3</v>
+        <v>0.006506136</v>
       </c>
       <c r="H74">
-        <v>1.2096235E-2</v>
+        <v>0.012096235</v>
       </c>
       <c r="I74">
-        <v>1.0873824839999999</v>
+        <v>1.087382484</v>
       </c>
       <c r="J74">
-        <v>65.707213719999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+        <v>65.70721372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>87304675.920000002</v>
+        <v>87304675.92</v>
       </c>
       <c r="C75">
-        <v>24.154094220000001</v>
+        <v>24.15409422</v>
       </c>
       <c r="D75">
-        <v>4.3805030000000002E-2</v>
+        <v>0.04380503</v>
       </c>
       <c r="E75" s="1">
-        <v>8.8800000000000008E-9</v>
+        <v>8.88e-9</v>
       </c>
       <c r="F75">
-        <v>4.7140703520000002</v>
+        <v>4.714070352</v>
       </c>
       <c r="G75">
-        <v>6.4386879999999997E-3</v>
+        <v>0.006438688</v>
       </c>
       <c r="H75">
-        <v>1.1732826E-2</v>
+        <v>0.011732826</v>
       </c>
       <c r="I75">
         <v>1.074398671</v>
       </c>
       <c r="J75">
-        <v>66.781612390000006</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>66.78161239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>87802889.439999998</v>
+        <v>87802889.44</v>
       </c>
       <c r="C76">
-        <v>24.184889259999999</v>
+        <v>24.18488926</v>
       </c>
       <c r="D76">
-        <v>4.3885486000000001E-2</v>
+        <v>0.043885486</v>
       </c>
       <c r="E76" s="1">
-        <v>8.7899999999999996E-9</v>
+        <v>8.79e-9</v>
       </c>
       <c r="F76">
-        <v>4.7361809050000003</v>
+        <v>4.736180905</v>
       </c>
       <c r="G76">
-        <v>6.370644E-3</v>
+        <v>0.006370644</v>
       </c>
       <c r="H76">
-        <v>1.1380833999999999E-2</v>
+        <v>0.011380834</v>
       </c>
       <c r="I76">
         <v>1.061176678</v>
       </c>
       <c r="J76">
-        <v>67.842789069999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+        <v>67.84278907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>88288767.640000001</v>
+        <v>88288767.64</v>
       </c>
       <c r="C77">
-        <v>24.215403330000001</v>
+        <v>24.21540333</v>
       </c>
       <c r="D77">
-        <v>4.3976067000000001E-2</v>
+        <v>0.043976067</v>
       </c>
       <c r="E77" s="1">
-        <v>8.7000000000000001E-9</v>
+        <v>8.7e-9</v>
       </c>
       <c r="F77">
-        <v>4.7582914570000003</v>
+        <v>4.758291457</v>
       </c>
       <c r="G77">
-        <v>6.3045250000000001E-3</v>
+        <v>0.006304525</v>
       </c>
       <c r="H77">
-        <v>1.1037023E-2</v>
+        <v>0.011037023</v>
       </c>
       <c r="I77">
         <v>1.047717413</v>
       </c>
       <c r="J77">
-        <v>68.890506490000007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+        <v>68.89050649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>88762574.599999994</v>
+        <v>88762574.6</v>
       </c>
       <c r="C78">
-        <v>24.245632990000001</v>
+        <v>24.24563299</v>
       </c>
       <c r="D78">
-        <v>4.4076441000000001E-2</v>
+        <v>0.044076441</v>
       </c>
       <c r="E78" s="1">
-        <v>8.6100000000000007E-9</v>
+        <v>8.61e-9</v>
       </c>
       <c r="F78">
-        <v>4.7804020100000004</v>
+        <v>4.78040201</v>
       </c>
       <c r="G78">
-        <v>6.2379330000000002E-3</v>
+        <v>0.006237933</v>
       </c>
       <c r="H78">
-        <v>1.0704473000000001E-2</v>
+        <v>0.010704473</v>
       </c>
       <c r="I78">
         <v>1.034104599</v>
       </c>
       <c r="J78">
-        <v>69.924611080000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+        <v>69.92461108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>89224478.030000001</v>
+        <v>89224478.03</v>
       </c>
       <c r="C79">
-        <v>24.275581460000001</v>
+        <v>24.27558146</v>
       </c>
       <c r="D79">
-        <v>4.4186309999999999E-2</v>
+        <v>0.04418631</v>
       </c>
       <c r="E79" s="1">
-        <v>8.5299999999999993E-9</v>
+        <v>8.53e-9</v>
       </c>
       <c r="F79">
-        <v>4.8025125629999996</v>
+        <v>4.802512563</v>
       </c>
       <c r="G79">
-        <v>6.1722440000000003E-3</v>
+        <v>0.006172244</v>
       </c>
       <c r="H79">
-        <v>1.0380677E-2</v>
+        <v>0.010380677</v>
       </c>
       <c r="I79">
         <v>1.020312017</v>
       </c>
       <c r="J79">
-        <v>70.944923099999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>70.9449231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>89674664.890000001</v>
+        <v>89674664.89</v>
       </c>
       <c r="C80">
-        <v>24.305251340000002</v>
+        <v>24.30525134</v>
       </c>
       <c r="D80">
-        <v>4.4305406999999998E-2</v>
+        <v>0.044305407</v>
       </c>
       <c r="E80" s="1">
-        <v>8.4499999999999996E-9</v>
+        <v>8.45e-9</v>
       </c>
       <c r="F80">
-        <v>4.8246231159999997</v>
+        <v>4.824623116</v>
       </c>
       <c r="G80">
-        <v>6.1073259999999997E-3</v>
+        <v>0.006107326</v>
       </c>
       <c r="H80">
-        <v>1.0065777E-2</v>
+        <v>0.010065777</v>
       </c>
       <c r="I80">
-        <v>1.0063795520000001</v>
+        <v>1.006379552</v>
       </c>
       <c r="J80">
-        <v>71.951302650000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>71.95130265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>90113324.510000005</v>
+        <v>90113324.51</v>
       </c>
       <c r="C81">
         <v>24.33464231</v>
       </c>
       <c r="D81">
-        <v>4.4433434000000001E-2</v>
+        <v>0.044433434</v>
       </c>
       <c r="E81" s="1">
-        <v>8.3699999999999998E-9</v>
+        <v>8.37e-9</v>
       </c>
       <c r="F81">
-        <v>4.8467336679999997</v>
+        <v>4.846733668</v>
       </c>
       <c r="G81">
-        <v>6.0425660000000001E-3</v>
+        <v>0.006042566</v>
       </c>
       <c r="H81">
-        <v>9.7595449999999997E-3</v>
+        <v>0.009759545</v>
       </c>
       <c r="I81">
-        <v>0.99229289399999998</v>
+        <v>0.992292894</v>
       </c>
       <c r="J81">
-        <v>72.943595549999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>72.94359555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>90540648.939999998</v>
+        <v>90540648.94</v>
       </c>
       <c r="C82">
         <v>24.36375743</v>
       </c>
       <c r="D82">
-        <v>4.4570169999999999E-2</v>
+        <v>0.04457017</v>
       </c>
       <c r="E82" s="1">
-        <v>8.2999999999999999E-9</v>
+        <v>8.3e-9</v>
       </c>
       <c r="F82">
-        <v>4.8688442209999998</v>
+        <v>4.868844221</v>
       </c>
       <c r="G82">
-        <v>5.9786630000000004E-3</v>
+        <v>0.005978663</v>
       </c>
       <c r="H82">
-        <v>9.4617750000000004E-3</v>
+        <v>0.009461775</v>
       </c>
       <c r="I82">
-        <v>0.97811820400000005</v>
+        <v>0.978118204</v>
       </c>
       <c r="J82">
-        <v>73.921713749999995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>73.92171375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>90956814.689999998</v>
+        <v>90956814.69</v>
       </c>
       <c r="C83">
         <v>24.39259715</v>
       </c>
       <c r="D83">
-        <v>4.4715365E-2</v>
+        <v>0.044715365</v>
       </c>
       <c r="E83" s="1">
-        <v>8.2299999999999999E-9</v>
+        <v>8.23e-9</v>
       </c>
       <c r="F83">
-        <v>4.8909547739999999</v>
+        <v>4.890954774</v>
       </c>
       <c r="G83">
-        <v>5.915071E-3</v>
+        <v>0.005915071</v>
       </c>
       <c r="H83">
-        <v>9.1718730000000005E-3</v>
+        <v>0.009171873</v>
       </c>
       <c r="I83">
-        <v>0.96381983599999999</v>
+        <v>0.963819836</v>
       </c>
       <c r="J83">
-        <v>74.885533589999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>74.88553359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>91361980.700000003</v>
+        <v>91361980.7</v>
       </c>
       <c r="C84">
-        <v>24.421167059999998</v>
+        <v>24.42116706</v>
       </c>
       <c r="D84">
-        <v>4.4868828999999999E-2</v>
+        <v>0.044868829</v>
       </c>
       <c r="E84" s="1">
-        <v>8.1699999999999997E-9</v>
+        <v>8.17e-9</v>
       </c>
       <c r="F84">
         <v>4.913065327</v>
       </c>
       <c r="G84">
-        <v>5.8528410000000001E-3</v>
+        <v>0.005852841</v>
       </c>
       <c r="H84">
-        <v>8.8892209999999992E-3</v>
+        <v>0.008889221</v>
       </c>
       <c r="I84">
-        <v>0.94945838900000001</v>
+        <v>0.949458389</v>
       </c>
       <c r="J84">
-        <v>75.834991979999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+        <v>75.83499198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3691,255 +3687,255 @@
         <v>91756343.75</v>
       </c>
       <c r="C85">
-        <v>24.449463649999998</v>
+        <v>24.44946365</v>
       </c>
       <c r="D85">
-        <v>4.5030292E-2</v>
+        <v>0.045030292</v>
       </c>
       <c r="E85" s="1">
-        <v>8.0999999999999997E-9</v>
+        <v>8.1e-9</v>
       </c>
       <c r="F85">
         <v>4.935175879</v>
       </c>
       <c r="G85">
-        <v>5.7901039999999999E-3</v>
+        <v>0.005790104</v>
       </c>
       <c r="H85">
-        <v>8.6144269999999992E-3</v>
+        <v>0.008614427</v>
       </c>
       <c r="I85">
-        <v>0.93498400599999998</v>
+        <v>0.934984006</v>
       </c>
       <c r="J85">
-        <v>76.769975979999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+        <v>76.76997598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>92140051.719999999</v>
+        <v>92140051.72</v>
       </c>
       <c r="C86">
-        <v>24.477492290000001</v>
+        <v>24.47749229</v>
       </c>
       <c r="D86">
-        <v>4.5199586E-2</v>
+        <v>0.045199586</v>
       </c>
       <c r="E86" s="1">
-        <v>8.0499999999999993E-9</v>
+        <v>8.05e-9</v>
       </c>
       <c r="F86">
-        <v>4.9572864320000001</v>
+        <v>4.957286432</v>
       </c>
       <c r="G86">
-        <v>5.7286719999999998E-3</v>
+        <v>0.005728672</v>
       </c>
       <c r="H86">
-        <v>8.3462129999999999E-3</v>
+        <v>0.008346213</v>
       </c>
       <c r="I86">
-        <v>0.92046289999999997</v>
+        <v>0.9204629</v>
       </c>
       <c r="J86">
-        <v>77.690438880000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77.69043888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>92513338.640000001</v>
+        <v>92513338.64</v>
       </c>
       <c r="C87">
-        <v>24.505253369999998</v>
+        <v>24.50525337</v>
       </c>
       <c r="D87">
-        <v>4.5376575000000002E-2</v>
+        <v>0.045376575</v>
       </c>
       <c r="E87" s="1">
-        <v>7.9900000000000007E-9</v>
+        <v>7.99e-9</v>
       </c>
       <c r="F87">
-        <v>4.9793969850000002</v>
+        <v>4.979396985</v>
       </c>
       <c r="G87">
-        <v>5.6675240000000002E-3</v>
+        <v>0.005667524</v>
       </c>
       <c r="H87">
-        <v>8.0862520000000004E-3</v>
+        <v>0.008086252</v>
       </c>
       <c r="I87">
-        <v>0.90596684500000002</v>
+        <v>0.905966845</v>
       </c>
       <c r="J87">
-        <v>78.596405730000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+        <v>78.59640573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>92876313.140000001</v>
+        <v>92876313.14</v>
       </c>
       <c r="C88">
-        <v>24.532749150000001</v>
+        <v>24.53274915</v>
       </c>
       <c r="D88">
-        <v>4.5561022999999999E-2</v>
+        <v>0.045561023</v>
       </c>
       <c r="E88" s="1">
-        <v>7.9300000000000005E-9</v>
+        <v>7.93e-9</v>
       </c>
       <c r="F88">
-        <v>5.0015075380000003</v>
+        <v>5.001507538</v>
       </c>
       <c r="G88">
-        <v>5.607038E-3</v>
+        <v>0.005607038</v>
       </c>
       <c r="H88">
-        <v>7.8316319999999998E-3</v>
+        <v>0.007831632</v>
       </c>
       <c r="I88">
-        <v>0.89135723200000005</v>
+        <v>0.891357232</v>
       </c>
       <c r="J88">
-        <v>79.487762959999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+        <v>79.48776296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>93229139.980000004</v>
+        <v>93229139.98</v>
       </c>
       <c r="C89">
         <v>24.55998301</v>
       </c>
       <c r="D89">
-        <v>4.5752785999999997E-2</v>
+        <v>0.045752786</v>
       </c>
       <c r="E89" s="1">
-        <v>7.8800000000000001E-9</v>
+        <v>7.88e-9</v>
       </c>
       <c r="F89">
-        <v>5.0236180900000003</v>
+        <v>5.02361809</v>
       </c>
       <c r="G89">
-        <v>5.5474340000000004E-3</v>
+        <v>0.005547434</v>
       </c>
       <c r="H89">
-        <v>7.5834020000000004E-3</v>
+        <v>0.007583402</v>
       </c>
       <c r="I89">
-        <v>0.87674508900000003</v>
+        <v>0.876745089</v>
       </c>
       <c r="J89">
-        <v>80.364508049999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+        <v>80.36450805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>93572030.209999993</v>
+        <v>93572030.21</v>
       </c>
       <c r="C90">
         <v>24.58695239</v>
       </c>
       <c r="D90">
-        <v>4.5951692000000002E-2</v>
+        <v>0.045951692</v>
       </c>
       <c r="E90" s="1">
-        <v>7.8299999999999996E-9</v>
+        <v>7.83e-9</v>
       </c>
       <c r="F90">
-        <v>5.0457286430000003</v>
+        <v>5.045728643</v>
       </c>
       <c r="G90">
-        <v>5.4875009999999997E-3</v>
+        <v>0.005487501</v>
       </c>
       <c r="H90">
-        <v>7.3423819999999997E-3</v>
+        <v>0.007342382</v>
       </c>
       <c r="I90">
-        <v>0.86213069799999997</v>
+        <v>0.862130698</v>
       </c>
       <c r="J90">
-        <v>81.226638750000006</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+        <v>81.22663875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>93905141.819999993</v>
+        <v>93905141.82</v>
       </c>
       <c r="C91">
-        <v>24.613662649999998</v>
+        <v>24.61366265</v>
       </c>
       <c r="D91">
-        <v>4.6157644999999997E-2</v>
+        <v>0.046157645</v>
       </c>
       <c r="E91" s="1">
-        <v>7.7900000000000006E-9</v>
+        <v>7.79e-9</v>
       </c>
       <c r="F91">
-        <v>5.0678391960000004</v>
+        <v>5.067839196</v>
       </c>
       <c r="G91">
-        <v>5.4288490000000003E-3</v>
+        <v>0.005428849</v>
       </c>
       <c r="H91">
-        <v>7.1072690000000003E-3</v>
+        <v>0.007107269</v>
       </c>
       <c r="I91">
-        <v>0.84755882299999996</v>
+        <v>0.847558823</v>
       </c>
       <c r="J91">
-        <v>82.074197569999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>82.07419757</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>94228593.200000003</v>
+        <v>94228593.2</v>
       </c>
       <c r="C92">
         <v>24.64011649</v>
       </c>
       <c r="D92">
-        <v>4.6370468999999997E-2</v>
+        <v>0.046370469</v>
       </c>
       <c r="E92" s="1">
-        <v>7.7400000000000002E-9</v>
+        <v>7.74e-9</v>
       </c>
       <c r="F92">
-        <v>5.0899497489999996</v>
+        <v>5.089949749</v>
       </c>
       <c r="G92">
-        <v>5.3709279999999996E-3</v>
+        <v>0.005370928</v>
       </c>
       <c r="H92">
-        <v>6.8770719999999997E-3</v>
+        <v>0.006877072</v>
       </c>
       <c r="I92">
-        <v>0.83294986699999995</v>
+        <v>0.832949867</v>
       </c>
       <c r="J92">
-        <v>82.907147440000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+        <v>82.90714744</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3947,831 +3943,831 @@
         <v>94542568.25</v>
       </c>
       <c r="C93">
-        <v>24.666309479999999</v>
+        <v>24.66630948</v>
       </c>
       <c r="D93">
-        <v>4.6589972E-2</v>
+        <v>0.046589972</v>
       </c>
       <c r="E93" s="1">
-        <v>7.6999999999999995E-9</v>
+        <v>7.7e-9</v>
       </c>
       <c r="F93">
-        <v>5.1120603019999997</v>
+        <v>5.112060302</v>
       </c>
       <c r="G93">
-        <v>5.3122880000000001E-3</v>
+        <v>0.005312288</v>
       </c>
       <c r="H93">
-        <v>6.6530479999999999E-3</v>
+        <v>0.006653048</v>
       </c>
       <c r="I93">
-        <v>0.81831324000000005</v>
+        <v>0.81831324</v>
       </c>
       <c r="J93">
-        <v>83.725460679999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+        <v>83.72546068</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>94847203.019999996</v>
+        <v>94847203.02</v>
       </c>
       <c r="C94">
-        <v>24.692252839999998</v>
+        <v>24.69225284</v>
       </c>
       <c r="D94">
-        <v>4.6816141999999998E-2</v>
+        <v>0.046816142</v>
       </c>
       <c r="E94" s="1">
-        <v>7.6600000000000004E-9</v>
+        <v>7.66e-9</v>
       </c>
       <c r="F94">
-        <v>5.1341708539999997</v>
+        <v>5.134170854</v>
       </c>
       <c r="G94">
-        <v>5.2561020000000003E-3</v>
+        <v>0.005256102</v>
       </c>
       <c r="H94">
-        <v>6.4340439999999999E-3</v>
+        <v>0.006434044</v>
       </c>
       <c r="I94">
-        <v>0.80380812300000004</v>
+        <v>0.803808123</v>
       </c>
       <c r="J94">
-        <v>84.529268799999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+        <v>84.5292688</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>95142691.790000007</v>
+        <v>95142691.79</v>
       </c>
       <c r="C95">
-        <v>24.717940120000002</v>
+        <v>24.71794012</v>
       </c>
       <c r="D95">
-        <v>4.7048793999999998E-2</v>
+        <v>0.047048794</v>
       </c>
       <c r="E95" s="1">
-        <v>7.6199999999999997E-9</v>
+        <v>7.62e-9</v>
       </c>
       <c r="F95">
-        <v>5.1562814069999998</v>
+        <v>5.156281407</v>
       </c>
       <c r="G95">
-        <v>5.1987830000000002E-3</v>
+        <v>0.005198783</v>
       </c>
       <c r="H95">
-        <v>6.2211619999999997E-3</v>
+        <v>0.006221162</v>
       </c>
       <c r="I95">
-        <v>0.78928503699999997</v>
+        <v>0.789285037</v>
       </c>
       <c r="J95">
-        <v>85.318553840000007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+        <v>85.31855384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>95429125.359999999</v>
+        <v>95429125.36</v>
       </c>
       <c r="C96">
-        <v>24.743380089999999</v>
+        <v>24.74338009</v>
       </c>
       <c r="D96">
-        <v>4.7287839999999998E-2</v>
+        <v>0.04728784</v>
       </c>
       <c r="E96" s="1">
-        <v>7.5800000000000007E-9</v>
+        <v>7.58e-9</v>
       </c>
       <c r="F96">
-        <v>5.1783919599999999</v>
+        <v>5.17839196</v>
       </c>
       <c r="G96">
-        <v>5.1434080000000004E-3</v>
+        <v>0.005143408</v>
       </c>
       <c r="H96">
-        <v>6.0121000000000003E-3</v>
+        <v>0.0060121</v>
       </c>
       <c r="I96">
-        <v>0.77481722900000005</v>
+        <v>0.774817229</v>
       </c>
       <c r="J96">
-        <v>86.093371070000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+        <v>86.09337107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>95706732.510000005</v>
+        <v>95706732.51</v>
       </c>
       <c r="C97">
         <v>24.7685669</v>
       </c>
       <c r="D97">
-        <v>4.7533156999999999E-2</v>
+        <v>0.047533157</v>
       </c>
       <c r="E97" s="1">
-        <v>7.5499999999999998E-9</v>
+        <v>7.55e-9</v>
       </c>
       <c r="F97">
         <v>5.200502513</v>
       </c>
       <c r="G97">
-        <v>5.0870189999999999E-3</v>
+        <v>0.005087019</v>
       </c>
       <c r="H97">
-        <v>5.8096420000000003E-3</v>
+        <v>0.005809642</v>
       </c>
       <c r="I97">
         <v>0.760412431</v>
       </c>
       <c r="J97">
-        <v>86.853783500000006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>86.8537835</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>95975591.579999998</v>
+        <v>95975591.58</v>
       </c>
       <c r="C98">
-        <v>24.793508670000001</v>
+        <v>24.79350867</v>
       </c>
       <c r="D98">
-        <v>4.7784658000000001E-2</v>
+        <v>0.047784658</v>
       </c>
       <c r="E98" s="1">
-        <v>7.5200000000000005E-9</v>
+        <v>7.52e-9</v>
       </c>
       <c r="F98">
         <v>5.222613065</v>
       </c>
       <c r="G98">
-        <v>5.0324310000000004E-3</v>
+        <v>0.005032431</v>
       </c>
       <c r="H98">
-        <v>5.6105249999999999E-3</v>
+        <v>0.005610525</v>
       </c>
       <c r="I98">
-        <v>0.74605595000000002</v>
+        <v>0.74605595</v>
       </c>
       <c r="J98">
-        <v>87.599839450000005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>87.59983945</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>96235870.230000004</v>
+        <v>96235870.23</v>
       </c>
       <c r="C99">
         <v>24.81820493</v>
       </c>
       <c r="D99">
-        <v>4.8042240999999999E-2</v>
+        <v>0.048042241</v>
       </c>
       <c r="E99" s="1">
-        <v>7.4899999999999996E-9</v>
+        <v>7.49e-9</v>
       </c>
       <c r="F99">
-        <v>5.2447236180000001</v>
+        <v>5.244723618</v>
       </c>
       <c r="G99">
-        <v>4.977909E-3</v>
+        <v>0.004977909</v>
       </c>
       <c r="H99">
-        <v>5.4165159999999997E-3</v>
+        <v>0.005416516</v>
       </c>
       <c r="I99">
-        <v>0.73176766800000004</v>
+        <v>0.731767668</v>
       </c>
       <c r="J99">
-        <v>88.331607109999993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+        <v>88.33160711</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>96487689.450000003</v>
+        <v>96487689.45</v>
       </c>
       <c r="C100">
-        <v>24.842660720000001</v>
+        <v>24.84266072</v>
       </c>
       <c r="D100">
-        <v>4.8305836999999997E-2</v>
+        <v>0.048305837</v>
       </c>
       <c r="E100" s="1">
-        <v>7.4600000000000003E-9</v>
+        <v>7.46e-9</v>
       </c>
       <c r="F100">
-        <v>5.2668341710000002</v>
+        <v>5.266834171</v>
       </c>
       <c r="G100">
-        <v>4.924561E-3</v>
+        <v>0.004924561</v>
       </c>
       <c r="H100">
-        <v>5.2265460000000003E-3</v>
+        <v>0.005226546</v>
       </c>
       <c r="I100">
-        <v>0.71756910699999998</v>
+        <v>0.717569107</v>
       </c>
       <c r="J100">
-        <v>89.049176220000007</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89.04917622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>96731254.840000004</v>
+        <v>96731254.84</v>
       </c>
       <c r="C101">
         <v>24.8668738</v>
       </c>
       <c r="D101">
-        <v>4.8575376000000003E-2</v>
+        <v>0.048575376</v>
       </c>
       <c r="E101" s="1">
-        <v>7.4300000000000002E-9</v>
+        <v>7.43e-9</v>
       </c>
       <c r="F101">
-        <v>5.2889447240000003</v>
+        <v>5.288944724</v>
       </c>
       <c r="G101">
-        <v>4.8709139999999996E-3</v>
+        <v>0.004870914</v>
       </c>
       <c r="H101">
-        <v>5.0422749999999997E-3</v>
+        <v>0.005042275</v>
       </c>
       <c r="I101">
-        <v>0.70348789300000003</v>
+        <v>0.703487893</v>
       </c>
       <c r="J101">
-        <v>89.752664109999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89.75266411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>96966638.019999996</v>
+        <v>96966638.02</v>
       </c>
       <c r="C102">
-        <v>24.890842200000002</v>
+        <v>24.8908422</v>
       </c>
       <c r="D102">
-        <v>4.8850652000000001E-2</v>
+        <v>0.048850652</v>
       </c>
       <c r="E102" s="1">
-        <v>7.4000000000000001E-9</v>
+        <v>7.4e-9</v>
       </c>
       <c r="F102">
-        <v>5.3110552760000003</v>
+        <v>5.311055276</v>
       </c>
       <c r="G102">
-        <v>4.8170230000000001E-3</v>
+        <v>0.004817023</v>
       </c>
       <c r="H102">
-        <v>4.8608380000000001E-3</v>
+        <v>0.004860838</v>
       </c>
       <c r="I102">
-        <v>0.68933928300000002</v>
+        <v>0.689339283</v>
       </c>
       <c r="J102">
-        <v>90.442003400000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+        <v>90.4420034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>97193998.790000007</v>
+        <v>97193998.79</v>
       </c>
       <c r="C103">
-        <v>24.914576319999998</v>
+        <v>24.91457632</v>
       </c>
       <c r="D103">
-        <v>4.9131731999999997E-2</v>
+        <v>0.049131732</v>
       </c>
       <c r="E103" s="1">
-        <v>7.3799999999999997E-9</v>
+        <v>7.38e-9</v>
       </c>
       <c r="F103">
-        <v>5.3331658290000004</v>
+        <v>5.333165829</v>
       </c>
       <c r="G103">
-        <v>4.7653699999999997E-3</v>
+        <v>0.00476537</v>
       </c>
       <c r="H103">
-        <v>4.6839789999999996E-3</v>
+        <v>0.004683979</v>
       </c>
       <c r="I103">
-        <v>0.67544020000000005</v>
+        <v>0.6754402</v>
       </c>
       <c r="J103">
-        <v>91.117443600000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+        <v>91.1174436</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>97413452.049999997</v>
+        <v>97413452.05</v>
       </c>
       <c r="C104">
-        <v>24.938077329999999</v>
+        <v>24.93807733</v>
       </c>
       <c r="D104">
-        <v>4.9418509999999999E-2</v>
+        <v>0.04941851</v>
       </c>
       <c r="E104" s="1">
-        <v>7.3499999999999996E-9</v>
+        <v>7.35e-9</v>
       </c>
       <c r="F104">
-        <v>5.3552763819999996</v>
+        <v>5.355276382</v>
       </c>
       <c r="G104">
-        <v>4.7140970000000004E-3</v>
+        <v>0.004714097</v>
       </c>
       <c r="H104">
-        <v>4.5106909999999998E-3</v>
+        <v>0.004510691</v>
       </c>
       <c r="I104">
         <v>0.66159952</v>
       </c>
       <c r="J104">
-        <v>91.779043119999997</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+        <v>91.77904312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>97625167.989999995</v>
+        <v>97625167.99</v>
       </c>
       <c r="C105">
-        <v>24.961340100000001</v>
+        <v>24.9613401</v>
       </c>
       <c r="D105">
-        <v>4.9710867999999998E-2</v>
+        <v>0.049710868</v>
       </c>
       <c r="E105" s="1">
-        <v>7.3300000000000001E-9</v>
+        <v>7.33e-9</v>
       </c>
       <c r="F105">
-        <v>5.3773869349999996</v>
+        <v>5.377386935</v>
       </c>
       <c r="G105">
-        <v>4.6619319999999997E-3</v>
+        <v>0.004661932</v>
       </c>
       <c r="H105">
-        <v>4.3420359999999996E-3</v>
+        <v>0.004342036</v>
       </c>
       <c r="I105">
-        <v>0.64781423400000004</v>
+        <v>0.647814234</v>
       </c>
       <c r="J105">
-        <v>92.426857350000006</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+        <v>92.42685735</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>97829281.689999998</v>
+        <v>97829281.69</v>
       </c>
       <c r="C106">
-        <v>24.984373160000001</v>
+        <v>24.98437316</v>
       </c>
       <c r="D106">
-        <v>5.0008835000000001E-2</v>
+        <v>0.050008835</v>
       </c>
       <c r="E106" s="1">
-        <v>7.3099999999999998E-9</v>
+        <v>7.31e-9</v>
       </c>
       <c r="F106">
-        <v>5.3994974869999997</v>
+        <v>5.399497487</v>
       </c>
       <c r="G106">
-        <v>4.6116200000000003E-3</v>
+        <v>0.00461162</v>
       </c>
       <c r="H106">
-        <v>4.1772170000000004E-3</v>
+        <v>0.004177217</v>
       </c>
       <c r="I106">
-        <v>0.63423730199999995</v>
+        <v>0.634237302</v>
       </c>
       <c r="J106">
-        <v>93.061094650000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93.06109465</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>98025852.680000007</v>
+        <v>98025852.68</v>
       </c>
       <c r="C107">
-        <v>25.007173989999998</v>
+        <v>25.00717399</v>
       </c>
       <c r="D107">
-        <v>5.0312212000000002E-2</v>
+        <v>0.050312212</v>
       </c>
       <c r="E107" s="1">
-        <v>7.2900000000000003E-9</v>
+        <v>7.29e-9</v>
       </c>
       <c r="F107">
-        <v>5.4216080399999997</v>
+        <v>5.42160804</v>
       </c>
       <c r="G107">
-        <v>4.5609370000000002E-3</v>
+        <v>0.004560937</v>
       </c>
       <c r="H107">
-        <v>4.0146239999999996E-3</v>
+        <v>0.004014624</v>
       </c>
       <c r="I107">
-        <v>0.62060547099999996</v>
+        <v>0.620605471</v>
       </c>
       <c r="J107">
-        <v>93.681700120000002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93.68170012</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>98215095.890000001</v>
+        <v>98215095.89</v>
       </c>
       <c r="C108">
-        <v>25.029745909999999</v>
+        <v>25.02974591</v>
       </c>
       <c r="D108">
-        <v>5.0621064E-2</v>
+        <v>0.050621064</v>
       </c>
       <c r="E108" s="1">
-        <v>7.2699999999999999E-9</v>
+        <v>7.27e-9</v>
       </c>
       <c r="F108">
-        <v>5.4437185929999998</v>
+        <v>5.443718593</v>
       </c>
       <c r="G108">
-        <v>4.5110539999999996E-3</v>
+        <v>0.004511054</v>
       </c>
       <c r="H108">
-        <v>3.8573679999999999E-3</v>
+        <v>0.003857368</v>
       </c>
       <c r="I108">
-        <v>0.60723965700000004</v>
+        <v>0.607239657</v>
       </c>
       <c r="J108">
-        <v>94.288939780000007</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+        <v>94.28893978</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>98397071.180000007</v>
+        <v>98397071.18</v>
       </c>
       <c r="C109">
         <v>25.05209056</v>
       </c>
       <c r="D109">
-        <v>5.0935256999999998E-2</v>
+        <v>0.050935257</v>
       </c>
       <c r="E109" s="1">
-        <v>7.2500000000000004E-9</v>
+        <v>7.25e-9</v>
       </c>
       <c r="F109">
-        <v>5.4658291459999999</v>
+        <v>5.465829146</v>
       </c>
       <c r="G109">
-        <v>4.4616279999999996E-3</v>
+        <v>0.004461628</v>
       </c>
       <c r="H109">
-        <v>3.7022219999999998E-3</v>
+        <v>0.003702222</v>
       </c>
       <c r="I109">
-        <v>0.59389071199999999</v>
+        <v>0.593890712</v>
       </c>
       <c r="J109">
-        <v>94.882830490000003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+        <v>94.88283049</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>98571923.640000001</v>
+        <v>98571923.64</v>
       </c>
       <c r="C110">
-        <v>25.074211689999998</v>
+        <v>25.07421169</v>
       </c>
       <c r="D110">
-        <v>5.1254787000000003E-2</v>
+        <v>0.051254787</v>
       </c>
       <c r="E110" s="1">
-        <v>7.2300000000000001E-9</v>
+        <v>7.23e-9</v>
       </c>
       <c r="F110">
-        <v>5.4879396979999999</v>
+        <v>5.487939698</v>
       </c>
       <c r="G110">
-        <v>4.4130810000000001E-3</v>
+        <v>0.004413081</v>
       </c>
       <c r="H110">
-        <v>3.5508649999999998E-3</v>
+        <v>0.003550865</v>
       </c>
       <c r="I110">
-        <v>0.58072265000000001</v>
+        <v>0.58072265</v>
       </c>
       <c r="J110">
-        <v>95.463553140000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+        <v>95.46355314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>98739771.319999993</v>
+        <v>98739771.32</v>
       </c>
       <c r="C111">
         <v>25.09610709</v>
       </c>
       <c r="D111">
-        <v>5.1579554999999999E-2</v>
+        <v>0.051579555</v>
       </c>
       <c r="E111" s="1">
-        <v>7.2200000000000003E-9</v>
+        <v>7.22e-9</v>
       </c>
       <c r="F111">
         <v>5.510050251</v>
       </c>
       <c r="G111">
-        <v>4.3642139999999999E-3</v>
+        <v>0.004364214</v>
       </c>
       <c r="H111">
-        <v>3.402693E-3</v>
+        <v>0.003402693</v>
       </c>
       <c r="I111">
         <v>0.567614858</v>
       </c>
       <c r="J111">
-        <v>96.031167999999994</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+        <v>96.031168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>98900739.980000004</v>
+        <v>98900739.98</v>
       </c>
       <c r="C112">
         <v>25.1177858</v>
       </c>
       <c r="D112">
-        <v>5.1909609000000002E-2</v>
+        <v>0.051909609</v>
       </c>
       <c r="E112" s="1">
-        <v>7.2E-9</v>
+        <v>7.2e-9</v>
       </c>
       <c r="F112">
-        <v>5.5321608040000001</v>
+        <v>5.532160804</v>
       </c>
       <c r="G112">
-        <v>4.3172740000000003E-3</v>
+        <v>0.004317274</v>
       </c>
       <c r="H112">
-        <v>3.257809E-3</v>
+        <v>0.003257809</v>
       </c>
       <c r="I112">
-        <v>0.55474674499999999</v>
+        <v>0.554746745</v>
       </c>
       <c r="J112">
-        <v>96.585914740000007</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+        <v>96.58591474</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>99054939.590000004</v>
+        <v>99054939.59</v>
       </c>
       <c r="C113">
-        <v>25.139241869999999</v>
+        <v>25.13924187</v>
       </c>
       <c r="D113">
-        <v>5.2244798000000002E-2</v>
+        <v>0.052244798</v>
       </c>
       <c r="E113" s="1">
-        <v>7.1900000000000002E-9</v>
+        <v>7.19e-9</v>
       </c>
       <c r="F113">
-        <v>5.5542713570000002</v>
+        <v>5.554271357</v>
       </c>
       <c r="G113">
-        <v>4.269269E-3</v>
+        <v>0.004269269</v>
       </c>
       <c r="H113">
-        <v>3.1158430000000001E-3</v>
+        <v>0.003115843</v>
       </c>
       <c r="I113">
-        <v>0.54188251200000004</v>
+        <v>0.541882512</v>
       </c>
       <c r="J113">
-        <v>97.127797259999994</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+        <v>97.12779726</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>99202489.870000005</v>
+        <v>99202489.87</v>
       </c>
       <c r="C114">
-        <v>25.160480969999998</v>
+        <v>25.16048097</v>
       </c>
       <c r="D114">
-        <v>5.2585132E-2</v>
+        <v>0.052585132</v>
       </c>
       <c r="E114" s="1">
-        <v>7.1799999999999996E-9</v>
+        <v>7.18e-9</v>
       </c>
       <c r="F114">
-        <v>5.5763819100000003</v>
+        <v>5.57638191</v>
       </c>
       <c r="G114">
-        <v>4.2225079999999998E-3</v>
+        <v>0.004222508</v>
       </c>
       <c r="H114">
-        <v>2.9769449999999999E-3</v>
+        <v>0.002976945</v>
       </c>
       <c r="I114">
         <v>0.529211867</v>
       </c>
       <c r="J114">
-        <v>97.657009119999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+        <v>97.65700912</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>99343488.950000003</v>
+        <v>99343488.95</v>
       </c>
       <c r="C115">
         <v>25.18150327</v>
       </c>
       <c r="D115">
-        <v>5.2930528999999997E-2</v>
+        <v>0.052930529</v>
       </c>
       <c r="E115" s="1">
-        <v>7.1699999999999998E-9</v>
+        <v>7.17e-9</v>
       </c>
       <c r="F115">
-        <v>5.5984924620000003</v>
+        <v>5.598492462</v>
       </c>
       <c r="G115">
-        <v>4.1758990000000003E-3</v>
+        <v>0.004175899</v>
       </c>
       <c r="H115">
-        <v>2.8406350000000002E-3</v>
+        <v>0.002840635</v>
       </c>
       <c r="I115">
-        <v>0.51662675700000005</v>
+        <v>0.516626757</v>
       </c>
       <c r="J115">
-        <v>98.173635880000006</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+        <v>98.17363588</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>99478072.579999998</v>
+        <v>99478072.58</v>
       </c>
       <c r="C116">
         <v>25.20231484</v>
       </c>
       <c r="D116">
-        <v>5.3281040000000002E-2</v>
+        <v>0.05328104</v>
       </c>
       <c r="E116" s="1">
-        <v>7.1600000000000001E-9</v>
+        <v>7.16e-9</v>
       </c>
       <c r="F116">
-        <v>5.6206030150000004</v>
+        <v>5.620603015</v>
       </c>
       <c r="G116">
-        <v>4.1306069999999997E-3</v>
+        <v>0.004130607</v>
       </c>
       <c r="H116">
-        <v>2.7076280000000001E-3</v>
+        <v>0.002707628</v>
       </c>
       <c r="I116">
-        <v>0.50427301000000002</v>
+        <v>0.50427301</v>
       </c>
       <c r="J116">
-        <v>98.677908889999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+        <v>98.67790889</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>99606366.439999998</v>
+        <v>99606366.44</v>
       </c>
       <c r="C117">
-        <v>25.222909749999999</v>
+        <v>25.22290975</v>
       </c>
       <c r="D117">
-        <v>5.3636547999999999E-2</v>
+        <v>0.053636548</v>
       </c>
       <c r="E117" s="1">
-        <v>7.1500000000000003E-9</v>
+        <v>7.15e-9</v>
       </c>
       <c r="F117">
-        <v>5.6427135679999996</v>
+        <v>5.642713568</v>
       </c>
       <c r="G117">
-        <v>4.0842470000000001E-3</v>
+        <v>0.004084247</v>
       </c>
       <c r="H117">
-        <v>2.5776779999999999E-3</v>
+        <v>0.002577678</v>
       </c>
       <c r="I117">
-        <v>0.49196436199999999</v>
+        <v>0.491964362</v>
       </c>
       <c r="J117">
-        <v>99.169873249999995</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+        <v>99.16987325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>99728415.150000006</v>
+        <v>99728415.15</v>
       </c>
       <c r="C118">
         <v>25.24329573</v>
       </c>
       <c r="D118">
-        <v>5.3997009999999998E-2</v>
+        <v>0.05399701</v>
       </c>
       <c r="E118" s="1">
-        <v>7.1399999999999997E-9</v>
+        <v>7.14e-9</v>
       </c>
       <c r="F118">
-        <v>5.6648241209999997</v>
+        <v>5.664824121</v>
       </c>
       <c r="G118">
-        <v>4.0395320000000002E-3</v>
+        <v>0.004039532</v>
       </c>
       <c r="H118">
-        <v>2.4491209999999999E-3</v>
+        <v>0.002449121</v>
       </c>
       <c r="I118">
-        <v>0.47978563400000002</v>
+        <v>0.479785634</v>
       </c>
       <c r="J118">
-        <v>99.649658889999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+        <v>99.64965889</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4779,63 +4775,63 @@
         <v>99844383.5</v>
       </c>
       <c r="C119">
-        <v>25.263471800000001</v>
+        <v>25.2634718</v>
       </c>
       <c r="D119">
-        <v>5.4362433000000002E-2</v>
+        <v>0.054362433</v>
       </c>
       <c r="E119" s="1">
-        <v>7.13E-9</v>
+        <v>7.13e-9</v>
       </c>
       <c r="F119">
-        <v>5.6869346729999997</v>
+        <v>5.686934673</v>
       </c>
       <c r="G119">
-        <v>3.9947259999999997E-3</v>
+        <v>0.003994726</v>
       </c>
       <c r="H119">
-        <v>2.324333E-3</v>
+        <v>0.002324333</v>
       </c>
       <c r="I119">
-        <v>0.46779080499999998</v>
+        <v>0.467790805</v>
       </c>
       <c r="J119">
-        <v>100.11744969999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+        <v>100.1174497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>99954381.310000002</v>
+        <v>99954381.31</v>
       </c>
       <c r="C120">
-        <v>25.283438919999998</v>
+        <v>25.28343892</v>
       </c>
       <c r="D120">
-        <v>5.4732786999999998E-2</v>
+        <v>0.054732787</v>
       </c>
       <c r="E120" s="1">
-        <v>7.1200000000000002E-9</v>
+        <v>7.12e-9</v>
       </c>
       <c r="F120">
-        <v>5.7090452259999998</v>
+        <v>5.709045226</v>
       </c>
       <c r="G120">
-        <v>3.9502180000000001E-3</v>
+        <v>0.003950218</v>
       </c>
       <c r="H120">
-        <v>2.202173E-3</v>
+        <v>0.002202173</v>
       </c>
       <c r="I120">
-        <v>0.45593080800000002</v>
+        <v>0.455930808</v>
       </c>
       <c r="J120">
         <v>100.5733805</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4843,31 +4839,31 @@
         <v>100058470.3</v>
       </c>
       <c r="C121">
-        <v>25.303202280000001</v>
+        <v>25.30320228</v>
       </c>
       <c r="D121">
-        <v>5.5108029000000003E-2</v>
+        <v>0.055108029</v>
       </c>
       <c r="E121" s="1">
-        <v>7.1200000000000002E-9</v>
+        <v>7.12e-9</v>
       </c>
       <c r="F121">
-        <v>5.7311557789999998</v>
+        <v>5.731155779</v>
       </c>
       <c r="G121">
-        <v>3.9068330000000002E-3</v>
+        <v>0.003906833</v>
       </c>
       <c r="H121">
-        <v>2.0816459999999999E-3</v>
+        <v>0.002081646</v>
       </c>
       <c r="I121">
-        <v>0.44419935500000002</v>
+        <v>0.444199355</v>
       </c>
       <c r="J121">
         <v>101.0175799</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4875,31 +4871,31 @@
         <v>100156746.3</v>
       </c>
       <c r="C122">
-        <v>25.322760519999999</v>
+        <v>25.32276052</v>
       </c>
       <c r="D122">
-        <v>5.5488085999999999E-2</v>
+        <v>0.055488086</v>
       </c>
       <c r="E122" s="1">
-        <v>7.1099999999999996E-9</v>
+        <v>7.11e-9</v>
       </c>
       <c r="F122">
-        <v>5.7532663319999999</v>
+        <v>5.753266332</v>
       </c>
       <c r="G122">
-        <v>3.8632839999999998E-3</v>
+        <v>0.003863284</v>
       </c>
       <c r="H122">
-        <v>1.9634079999999998E-3</v>
+        <v>0.001963408</v>
       </c>
       <c r="I122">
-        <v>0.43255502499999998</v>
+        <v>0.432555025</v>
       </c>
       <c r="J122">
-        <v>101.45013489999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+        <v>101.4501349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4910,92 +4906,92 @@
         <v>25.34211981</v>
       </c>
       <c r="D123">
-        <v>5.5873054999999998E-2</v>
+        <v>0.055873055</v>
       </c>
       <c r="E123" s="1">
-        <v>7.1099999999999996E-9</v>
+        <v>7.11e-9</v>
       </c>
       <c r="F123">
-        <v>5.7753768839999999</v>
+        <v>5.775376884</v>
       </c>
       <c r="G123">
-        <v>3.8210480000000001E-3</v>
+        <v>0.003821048</v>
       </c>
       <c r="H123">
-        <v>1.8486780000000001E-3</v>
+        <v>0.001848678</v>
       </c>
       <c r="I123">
-        <v>0.42120315000000003</v>
+        <v>0.42120315</v>
       </c>
       <c r="J123">
-        <v>101.87133799999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+        <v>101.871338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>100336418.59999999</v>
+        <v>100336418.6</v>
       </c>
       <c r="C124">
-        <v>25.361275150000001</v>
+        <v>25.36127515</v>
       </c>
       <c r="D124">
-        <v>5.6262814000000001E-2</v>
+        <v>0.056262814</v>
       </c>
       <c r="E124" s="1">
-        <v>7.0999999999999999E-9</v>
+        <v>7.1e-9</v>
       </c>
       <c r="F124">
         <v>5.797487437</v>
       </c>
       <c r="G124">
-        <v>3.7779210000000001E-3</v>
+        <v>0.003777921</v>
       </c>
       <c r="H124">
-        <v>1.7359319999999999E-3</v>
+        <v>0.001735932</v>
       </c>
       <c r="I124">
-        <v>0.40987269999999998</v>
+        <v>0.4098727</v>
       </c>
       <c r="J124">
         <v>102.2812107</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>100417988.09999999</v>
+        <v>100417988.1</v>
       </c>
       <c r="C125">
         <v>25.38024587</v>
       </c>
       <c r="D125">
-        <v>5.6657526999999999E-2</v>
+        <v>0.056657527</v>
       </c>
       <c r="E125" s="1">
-        <v>7.0999999999999999E-9</v>
+        <v>7.1e-9</v>
       </c>
       <c r="F125">
-        <v>5.8195979900000001</v>
+        <v>5.81959799</v>
       </c>
       <c r="G125">
-        <v>3.7386979999999999E-3</v>
+        <v>0.003738698</v>
       </c>
       <c r="H125">
-        <v>1.6252599999999999E-3</v>
+        <v>0.00162526</v>
       </c>
       <c r="I125">
-        <v>0.39893114800000001</v>
+        <v>0.398931148</v>
       </c>
       <c r="J125">
         <v>102.6801419</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5006,147 +5002,147 @@
         <v>25.39899273</v>
       </c>
       <c r="D126">
-        <v>5.7056651999999999E-2</v>
+        <v>0.057056652</v>
       </c>
       <c r="E126" s="1">
-        <v>7.0999999999999999E-9</v>
+        <v>7.1e-9</v>
       </c>
       <c r="F126">
-        <v>5.8417085430000002</v>
+        <v>5.841708543</v>
       </c>
       <c r="G126">
-        <v>3.6918350000000001E-3</v>
+        <v>0.003691835</v>
       </c>
       <c r="H126">
-        <v>1.5154669999999999E-3</v>
+        <v>0.001515467</v>
       </c>
       <c r="I126">
-        <v>0.38743722600000002</v>
+        <v>0.387437226</v>
       </c>
       <c r="J126">
         <v>103.0675791</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>100564941.40000001</v>
+        <v>100564941.4</v>
       </c>
       <c r="C127">
         <v>25.41755989</v>
       </c>
       <c r="D127">
-        <v>5.7460696999999998E-2</v>
+        <v>0.057460697</v>
       </c>
       <c r="E127" s="1">
-        <v>7.0900000000000001E-9</v>
+        <v>7.09e-9</v>
       </c>
       <c r="F127">
-        <v>5.8638190950000002</v>
+        <v>5.863819095</v>
       </c>
       <c r="G127">
-        <v>3.653763E-3</v>
+        <v>0.003653763</v>
       </c>
       <c r="H127">
-        <v>1.4092239999999999E-3</v>
+        <v>0.001409224</v>
       </c>
       <c r="I127">
-        <v>0.37681607099999997</v>
+        <v>0.376816071</v>
       </c>
       <c r="J127">
         <v>103.4443952</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>100630586.40000001</v>
+        <v>100630586.4</v>
       </c>
       <c r="C128">
-        <v>25.435930970000001</v>
+        <v>25.43593097</v>
       </c>
       <c r="D128">
-        <v>5.7869462000000003E-2</v>
+        <v>0.057869462</v>
       </c>
       <c r="E128" s="1">
-        <v>7.0900000000000001E-9</v>
+        <v>7.09e-9</v>
       </c>
       <c r="F128">
-        <v>5.8859296480000003</v>
+        <v>5.885929648</v>
       </c>
       <c r="G128">
-        <v>3.6125509999999999E-3</v>
+        <v>0.003612551</v>
       </c>
       <c r="H128">
-        <v>1.3051009999999999E-3</v>
+        <v>0.001305101</v>
       </c>
       <c r="I128">
-        <v>0.36607621499999998</v>
+        <v>0.366076215</v>
       </c>
       <c r="J128">
         <v>103.8104714</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>100691133.40000001</v>
+        <v>100691133.4</v>
       </c>
       <c r="C129">
-        <v>25.454107560000001</v>
+        <v>25.45410756</v>
       </c>
       <c r="D129">
-        <v>5.8282915999999997E-2</v>
+        <v>0.058282916</v>
       </c>
       <c r="E129" s="1">
-        <v>7.0900000000000001E-9</v>
+        <v>7.09e-9</v>
       </c>
       <c r="F129">
-        <v>5.9080402010000004</v>
+        <v>5.908040201</v>
       </c>
       <c r="G129">
-        <v>3.5717399999999999E-3</v>
+        <v>0.00357174</v>
       </c>
       <c r="H129">
-        <v>1.202989E-3</v>
+        <v>0.001202989</v>
       </c>
       <c r="I129">
-        <v>0.35547838599999998</v>
+        <v>0.355478386</v>
       </c>
       <c r="J129">
-        <v>104.16594980000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+        <v>104.1659498</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>100746637.90000001</v>
+        <v>100746637.9</v>
       </c>
       <c r="C130">
         <v>25.47209913</v>
       </c>
       <c r="D130">
-        <v>5.8701086E-2</v>
+        <v>0.058701086</v>
       </c>
       <c r="E130" s="1">
-        <v>7.0900000000000001E-9</v>
+        <v>7.09e-9</v>
       </c>
       <c r="F130">
-        <v>5.9301507539999996</v>
+        <v>5.930150754</v>
       </c>
       <c r="G130">
-        <v>3.53287E-3</v>
+        <v>0.00353287</v>
       </c>
       <c r="H130">
-        <v>1.1021679999999999E-3</v>
+        <v>0.001102168</v>
       </c>
       <c r="I130">
         <v>0.345087221</v>
@@ -5155,7 +5151,7 @@
         <v>104.511037</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5163,95 +5159,95 @@
         <v>100797221</v>
       </c>
       <c r="C131">
-        <v>25.489895629999999</v>
+        <v>25.48989563</v>
       </c>
       <c r="D131">
-        <v>5.9123891999999997E-2</v>
+        <v>0.059123892</v>
       </c>
       <c r="E131" s="1">
-        <v>7.0900000000000001E-9</v>
+        <v>7.09e-9</v>
       </c>
       <c r="F131">
-        <v>5.9522613069999997</v>
+        <v>5.952261307</v>
       </c>
       <c r="G131">
-        <v>3.4921129999999998E-3</v>
+        <v>0.003492113</v>
       </c>
       <c r="H131">
-        <v>1.0039129999999999E-3</v>
+        <v>0.001003913</v>
       </c>
       <c r="I131">
-        <v>0.33471629000000003</v>
+        <v>0.33471629</v>
       </c>
       <c r="J131">
         <v>104.8457533</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>100842950.90000001</v>
+        <v>100842950.9</v>
       </c>
       <c r="C132">
         <v>25.50750738</v>
       </c>
       <c r="D132">
-        <v>5.9551371999999998E-2</v>
+        <v>0.059551372</v>
       </c>
       <c r="E132" s="1">
-        <v>7.0999999999999999E-9</v>
+        <v>7.1e-9</v>
       </c>
       <c r="F132">
-        <v>5.9743718589999997</v>
+        <v>5.974371859</v>
       </c>
       <c r="G132">
-        <v>3.4534610000000001E-3</v>
+        <v>0.003453461</v>
       </c>
       <c r="H132">
-        <v>9.0715800000000003E-4</v>
+        <v>0.000907158</v>
       </c>
       <c r="I132">
         <v>0.324587024</v>
       </c>
       <c r="J132">
-        <v>105.17034030000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+        <v>105.1703403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>100883906.40000001</v>
+        <v>100883906.4</v>
       </c>
       <c r="C133">
         <v>25.524936</v>
       </c>
       <c r="D133">
-        <v>5.9983491999999999E-2</v>
+        <v>0.059983492</v>
       </c>
       <c r="E133" s="1">
-        <v>7.0999999999999999E-9</v>
+        <v>7.1e-9</v>
       </c>
       <c r="F133">
-        <v>5.9964824119999998</v>
+        <v>5.996482412</v>
       </c>
       <c r="G133">
-        <v>3.4152039999999998E-3</v>
+        <v>0.003415204</v>
       </c>
       <c r="H133">
-        <v>8.1209700000000001E-4</v>
+        <v>0.000812097</v>
       </c>
       <c r="I133">
-        <v>0.31458925300000001</v>
+        <v>0.314589253</v>
       </c>
       <c r="J133">
         <v>105.4849296</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5262,92 +5258,92 @@
         <v>25.5421777</v>
       </c>
       <c r="D134">
-        <v>6.0420236000000002E-2</v>
+        <v>0.060420236</v>
       </c>
       <c r="E134" s="1">
-        <v>7.0999999999999999E-9</v>
+        <v>7.1e-9</v>
       </c>
       <c r="F134">
-        <v>6.0185929649999999</v>
+        <v>6.018592965</v>
       </c>
       <c r="G134">
-        <v>3.3762829999999999E-3</v>
+        <v>0.003376283</v>
       </c>
       <c r="H134">
-        <v>7.1948200000000002E-4</v>
+        <v>0.000719482</v>
       </c>
       <c r="I134">
-        <v>0.30470346999999998</v>
+        <v>0.30470347</v>
       </c>
       <c r="J134">
-        <v>105.78963299999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+        <v>105.789633</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>100951931.09999999</v>
+        <v>100951931.1</v>
       </c>
       <c r="C135">
         <v>25.5592349</v>
       </c>
       <c r="D135">
-        <v>6.0861593999999998E-2</v>
+        <v>0.060861594</v>
       </c>
       <c r="E135" s="1">
-        <v>7.0999999999999999E-9</v>
+        <v>7.1e-9</v>
       </c>
       <c r="F135">
-        <v>6.0407035179999999</v>
+        <v>6.040703518</v>
       </c>
       <c r="G135">
-        <v>3.3379109999999998E-3</v>
+        <v>0.003337911</v>
       </c>
       <c r="H135">
-        <v>6.2863800000000005E-4</v>
+        <v>0.000628638</v>
       </c>
       <c r="I135">
-        <v>0.29497290500000001</v>
+        <v>0.294972905</v>
       </c>
       <c r="J135">
         <v>106.0846059</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>100979139.90000001</v>
+        <v>100979139.9</v>
       </c>
       <c r="C136">
-        <v>25.576115999999999</v>
+        <v>25.576116</v>
       </c>
       <c r="D136">
-        <v>6.1307591000000002E-2</v>
+        <v>0.061307591</v>
       </c>
       <c r="E136" s="1">
-        <v>7.1099999999999996E-9</v>
+        <v>7.11e-9</v>
       </c>
       <c r="F136">
-        <v>6.0628140699999999</v>
+        <v>6.06281407</v>
       </c>
       <c r="G136">
-        <v>3.3012599999999999E-3</v>
+        <v>0.00330126</v>
       </c>
       <c r="H136">
-        <v>5.3897099999999996E-4</v>
+        <v>0.000538971</v>
       </c>
       <c r="I136">
-        <v>0.28544261100000001</v>
+        <v>0.285442611</v>
       </c>
       <c r="J136">
         <v>106.3700486</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5358,28 +5354,28 @@
         <v>25.59281404</v>
       </c>
       <c r="D137">
-        <v>6.1758093999999999E-2</v>
+        <v>0.061758094</v>
       </c>
       <c r="E137" s="1">
-        <v>7.1099999999999996E-9</v>
+        <v>7.11e-9</v>
       </c>
       <c r="F137">
         <v>6.084924623</v>
       </c>
       <c r="G137">
-        <v>3.263317E-3</v>
+        <v>0.003263317</v>
       </c>
       <c r="H137">
-        <v>4.50486E-4</v>
+        <v>0.000450486</v>
       </c>
       <c r="I137">
-        <v>0.27589190499999999</v>
+        <v>0.275891905</v>
       </c>
       <c r="J137">
-        <v>106.64594049999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+        <v>106.6459405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5387,159 +5383,159 @@
         <v>101020333</v>
       </c>
       <c r="C138">
-        <v>25.609332869999999</v>
+        <v>25.60933287</v>
       </c>
       <c r="D138">
-        <v>6.221322E-2</v>
+        <v>0.06221322</v>
       </c>
       <c r="E138" s="1">
-        <v>7.1200000000000002E-9</v>
+        <v>7.12e-9</v>
       </c>
       <c r="F138">
-        <v>6.1070351760000001</v>
+        <v>6.107035176</v>
       </c>
       <c r="G138">
-        <v>3.226198E-3</v>
+        <v>0.003226198</v>
       </c>
       <c r="H138">
-        <v>3.6522099999999999E-4</v>
+        <v>0.000365221</v>
       </c>
       <c r="I138">
-        <v>0.26663234099999999</v>
+        <v>0.266632341</v>
       </c>
       <c r="J138">
-        <v>106.91257280000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+        <v>106.9125728</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>101034473.09999999</v>
+        <v>101034473.1</v>
       </c>
       <c r="C139">
-        <v>25.625679040000001</v>
+        <v>25.62567904</v>
       </c>
       <c r="D139">
-        <v>6.2672906E-2</v>
+        <v>0.062672906</v>
       </c>
       <c r="E139" s="1">
-        <v>7.1200000000000002E-9</v>
+        <v>7.12e-9</v>
       </c>
       <c r="F139">
-        <v>6.1291457290000002</v>
+        <v>6.129145729</v>
       </c>
       <c r="G139">
-        <v>3.1904300000000002E-3</v>
+        <v>0.00319043</v>
       </c>
       <c r="H139">
-        <v>2.7992700000000002E-4</v>
+        <v>0.000279927</v>
       </c>
       <c r="I139">
-        <v>0.25746316600000002</v>
+        <v>0.257463166</v>
       </c>
       <c r="J139">
         <v>107.170036</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>101044442.59999999</v>
+        <v>101044442.6</v>
       </c>
       <c r="C140">
-        <v>25.641849109999999</v>
+        <v>25.64184911</v>
       </c>
       <c r="D140">
-        <v>6.3137153000000001E-2</v>
+        <v>0.063137153</v>
       </c>
       <c r="E140" s="1">
-        <v>7.13E-9</v>
+        <v>7.13e-9</v>
       </c>
       <c r="F140">
-        <v>6.1512562810000002</v>
+        <v>6.151256281</v>
       </c>
       <c r="G140">
-        <v>3.1540579999999999E-3</v>
+        <v>0.003154058</v>
       </c>
       <c r="H140">
-        <v>1.97338E-4</v>
+        <v>0.000197338</v>
       </c>
       <c r="I140">
-        <v>0.24844497500000001</v>
+        <v>0.248444975</v>
       </c>
       <c r="J140">
-        <v>107.41848090000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+        <v>107.4184809</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>101050294.90000001</v>
+        <v>101050294.9</v>
       </c>
       <c r="C141">
-        <v>25.657844390000001</v>
+        <v>25.65784439</v>
       </c>
       <c r="D141">
-        <v>6.3605939E-2</v>
+        <v>0.063605939</v>
       </c>
       <c r="E141" s="1">
-        <v>7.13E-9</v>
+        <v>7.13e-9</v>
       </c>
       <c r="F141">
-        <v>6.1733668340000003</v>
+        <v>6.173366834</v>
       </c>
       <c r="G141">
-        <v>3.1180079999999998E-3</v>
+        <v>0.003118008</v>
       </c>
       <c r="H141">
-        <v>1.15832E-4</v>
+        <v>0.000115832</v>
       </c>
       <c r="I141">
-        <v>0.23952774199999999</v>
+        <v>0.239527742</v>
       </c>
       <c r="J141">
         <v>107.6580087</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>101052125.90000001</v>
+        <v>101052125.9</v>
       </c>
       <c r="C142">
         <v>25.67366586</v>
       </c>
       <c r="D142">
-        <v>6.4079276000000004E-2</v>
+        <v>0.064079276</v>
       </c>
       <c r="E142" s="1">
-        <v>7.1399999999999997E-9</v>
+        <v>7.14e-9</v>
       </c>
       <c r="F142">
-        <v>6.1954773870000004</v>
+        <v>6.195477387</v>
       </c>
       <c r="G142">
-        <v>3.0822150000000001E-3</v>
+        <v>0.003082215</v>
       </c>
       <c r="H142" s="1">
-        <v>3.6239399999999997E-5</v>
+        <v>3.62394e-5</v>
       </c>
       <c r="I142">
-        <v>0.23077007599999999</v>
+        <v>0.230770076</v>
       </c>
       <c r="J142">
         <v>107.8887788</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5547,31 +5543,31 @@
         <v>101049958.3</v>
       </c>
       <c r="C143">
-        <v>25.689321670000002</v>
+        <v>25.68932167</v>
       </c>
       <c r="D143">
-        <v>6.4557143999999997E-2</v>
+        <v>0.064557144</v>
       </c>
       <c r="E143" s="1">
-        <v>7.1500000000000003E-9</v>
+        <v>7.15e-9</v>
       </c>
       <c r="F143">
-        <v>6.2175879399999996</v>
+        <v>6.21758794</v>
       </c>
       <c r="G143">
-        <v>3.0480720000000002E-3</v>
+        <v>0.003048072</v>
       </c>
       <c r="H143" s="1">
-        <v>-4.2899799999999999E-5</v>
+        <v>-4.28998e-5</v>
       </c>
       <c r="I143">
-        <v>0.22216892799999999</v>
+        <v>0.222168928</v>
       </c>
       <c r="J143">
         <v>108.1109477</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5582,28 +5578,28 @@
         <v>25.70480478</v>
       </c>
       <c r="D144">
-        <v>6.5039553999999999E-2</v>
+        <v>0.065039554</v>
       </c>
       <c r="E144" s="1">
-        <v>7.1500000000000003E-9</v>
+        <v>7.15e-9</v>
       </c>
       <c r="F144">
-        <v>6.2396984919999996</v>
+        <v>6.239698492</v>
       </c>
       <c r="G144">
-        <v>3.012622E-3</v>
+        <v>0.003012622</v>
       </c>
       <c r="H144">
-        <v>-1.19215E-4</v>
+        <v>-0.000119215</v>
       </c>
       <c r="I144">
-        <v>0.21368269100000001</v>
+        <v>0.213682691</v>
       </c>
       <c r="J144">
         <v>108.3246304</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5614,28 +5610,28 @@
         <v>25.72012458</v>
       </c>
       <c r="D145">
-        <v>6.5526474000000001E-2</v>
+        <v>0.065526474</v>
       </c>
       <c r="E145" s="1">
-        <v>7.1600000000000001E-9</v>
+        <v>7.16e-9</v>
       </c>
       <c r="F145">
-        <v>6.2618090449999997</v>
+        <v>6.261809045</v>
       </c>
       <c r="G145">
-        <v>2.9790620000000002E-3</v>
+        <v>0.002979062</v>
       </c>
       <c r="H145">
-        <v>-1.95565E-4</v>
+        <v>-0.000195565</v>
       </c>
       <c r="I145">
-        <v>0.20533758599999999</v>
+        <v>0.205337586</v>
       </c>
       <c r="J145">
         <v>108.529968</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5643,22 +5639,22 @@
         <v>101020443.3</v>
       </c>
       <c r="C146">
-        <v>25.735275919999999</v>
+        <v>25.73527592</v>
       </c>
       <c r="D146">
-        <v>6.6017909999999999E-2</v>
+        <v>0.06601791</v>
       </c>
       <c r="E146" s="1">
-        <v>7.1699999999999998E-9</v>
+        <v>7.17e-9</v>
       </c>
       <c r="F146">
-        <v>6.2839195979999998</v>
+        <v>6.283919598</v>
       </c>
       <c r="G146">
-        <v>2.9445579999999999E-3</v>
+        <v>0.002944558</v>
       </c>
       <c r="H146">
-        <v>-2.6947199999999998E-4</v>
+        <v>-0.000269472</v>
       </c>
       <c r="I146">
         <v>0.197108907</v>
@@ -5667,30 +5663,30 @@
         <v>108.7270769</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>101003161.90000001</v>
+        <v>101003161.9</v>
       </c>
       <c r="C147">
         <v>25.75026626</v>
       </c>
       <c r="D147">
-        <v>6.6513903999999999E-2</v>
+        <v>0.066513904</v>
       </c>
       <c r="E147" s="1">
-        <v>7.1799999999999996E-9</v>
+        <v>7.18e-9</v>
       </c>
       <c r="F147">
-        <v>6.3060301509999999</v>
+        <v>6.306030151</v>
       </c>
       <c r="G147">
-        <v>2.9115629999999998E-3</v>
+        <v>0.002911563</v>
       </c>
       <c r="H147">
-        <v>-3.4216500000000001E-4</v>
+        <v>-0.000342165</v>
       </c>
       <c r="I147">
         <v>0.189088061</v>
@@ -5699,62 +5695,62 @@
         <v>108.9161649</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>100982244.09999999</v>
+        <v>100982244.1</v>
       </c>
       <c r="C148">
-        <v>25.765086180000001</v>
+        <v>25.76508618</v>
       </c>
       <c r="D148">
-        <v>6.7014307999999995E-2</v>
+        <v>0.067014308</v>
       </c>
       <c r="E148" s="1">
-        <v>7.1900000000000002E-9</v>
+        <v>7.19e-9</v>
       </c>
       <c r="F148">
-        <v>6.3281407039999999</v>
+        <v>6.328140704</v>
       </c>
       <c r="G148">
-        <v>2.8767979999999999E-3</v>
+        <v>0.002876798</v>
       </c>
       <c r="H148">
-        <v>-4.1424399999999997E-4</v>
+        <v>-0.000414244</v>
       </c>
       <c r="I148">
-        <v>0.18099106200000001</v>
+        <v>0.180991062</v>
       </c>
       <c r="J148">
         <v>109.097156</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>100957806.09999999</v>
+        <v>100957806.1</v>
       </c>
       <c r="C149">
-        <v>25.779744520000001</v>
+        <v>25.77974452</v>
       </c>
       <c r="D149">
-        <v>6.7519246000000005E-2</v>
+        <v>0.067519246</v>
       </c>
       <c r="E149" s="1">
-        <v>7.2E-9</v>
+        <v>7.2e-9</v>
       </c>
       <c r="F149">
         <v>6.350251256</v>
       </c>
       <c r="G149">
-        <v>2.8438040000000001E-3</v>
+        <v>0.002843804</v>
       </c>
       <c r="H149">
-        <v>-4.8406399999999998E-4</v>
+        <v>-0.000484064</v>
       </c>
       <c r="I149">
         <v>0.173200625</v>
@@ -5763,7 +5759,7 @@
         <v>109.2703566</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5771,31 +5767,31 @@
         <v>100929861.3</v>
       </c>
       <c r="C150">
-        <v>25.794248620000001</v>
+        <v>25.79424862</v>
       </c>
       <c r="D150">
-        <v>6.8028691000000002E-2</v>
+        <v>0.068028691</v>
       </c>
       <c r="E150" s="1">
-        <v>7.2099999999999997E-9</v>
+        <v>7.21e-9</v>
       </c>
       <c r="F150">
         <v>6.372361809</v>
       </c>
       <c r="G150">
-        <v>2.8122899999999998E-3</v>
+        <v>0.00281229</v>
       </c>
       <c r="H150">
-        <v>-5.5367100000000005E-4</v>
+        <v>-0.000553671</v>
       </c>
       <c r="I150">
-        <v>0.16554539400000001</v>
+        <v>0.165545394</v>
       </c>
       <c r="J150">
         <v>109.435902</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5803,31 +5799,31 @@
         <v>100898518.7</v>
       </c>
       <c r="C151">
-        <v>25.808591079999999</v>
+        <v>25.80859108</v>
       </c>
       <c r="D151">
-        <v>6.8542624999999996E-2</v>
+        <v>0.068542625</v>
       </c>
       <c r="E151" s="1">
-        <v>7.2200000000000003E-9</v>
+        <v>7.22e-9</v>
       </c>
       <c r="F151">
-        <v>6.3944723620000001</v>
+        <v>6.394472362</v>
       </c>
       <c r="G151">
-        <v>2.7793929999999998E-3</v>
+        <v>0.002779393</v>
       </c>
       <c r="H151">
-        <v>-6.2117300000000004E-4</v>
+        <v>-0.000621173</v>
       </c>
       <c r="I151">
-        <v>0.15795535599999999</v>
+        <v>0.157955356</v>
       </c>
       <c r="J151">
         <v>109.5938574</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5835,31 +5831,31 @@
         <v>100863837.2</v>
       </c>
       <c r="C152">
-        <v>25.822771979999999</v>
+        <v>25.82277198</v>
       </c>
       <c r="D152">
-        <v>6.9061032999999994E-2</v>
+        <v>0.069061033</v>
       </c>
       <c r="E152" s="1">
-        <v>7.2300000000000001E-9</v>
+        <v>7.23e-9</v>
       </c>
       <c r="F152">
-        <v>6.4165829150000002</v>
+        <v>6.416582915</v>
       </c>
       <c r="G152">
-        <v>2.746568E-3</v>
+        <v>0.002746568</v>
       </c>
       <c r="H152">
-        <v>-6.8756999999999998E-4</v>
+        <v>-0.00068757</v>
       </c>
       <c r="I152">
-        <v>0.15046514499999999</v>
+        <v>0.150465145</v>
       </c>
       <c r="J152">
         <v>109.7443225</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5870,92 +5866,92 @@
         <v>25.83679983</v>
       </c>
       <c r="D153">
-        <v>6.9583929000000003E-2</v>
+        <v>0.069583929</v>
       </c>
       <c r="E153" s="1">
-        <v>7.2399999999999998E-9</v>
+        <v>7.24e-9</v>
       </c>
       <c r="F153">
-        <v>6.4386934670000002</v>
+        <v>6.438693467</v>
       </c>
       <c r="G153">
-        <v>2.7154409999999999E-3</v>
+        <v>0.002715441</v>
       </c>
       <c r="H153">
-        <v>-7.5327499999999997E-4</v>
+        <v>-0.000753275</v>
       </c>
       <c r="I153">
-        <v>0.14316414199999999</v>
+        <v>0.143164142</v>
       </c>
       <c r="J153">
         <v>109.8874867</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>100784655.09999999</v>
+        <v>100784655.1</v>
       </c>
       <c r="C154">
-        <v>25.850673960000002</v>
+        <v>25.85067396</v>
       </c>
       <c r="D154">
-        <v>7.0111326000000002E-2</v>
+        <v>0.070111326</v>
       </c>
       <c r="E154" s="1">
-        <v>7.2600000000000002E-9</v>
+        <v>7.26e-9</v>
       </c>
       <c r="F154">
-        <v>6.4608040200000003</v>
+        <v>6.46080402</v>
       </c>
       <c r="G154">
-        <v>2.6842340000000002E-3</v>
+        <v>0.002684234</v>
       </c>
       <c r="H154">
-        <v>-8.1742200000000005E-4</v>
+        <v>-0.000817422</v>
       </c>
       <c r="I154">
-        <v>0.13598627499999999</v>
+        <v>0.135986275</v>
       </c>
       <c r="J154">
         <v>110.0234729</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>100740286.40000001</v>
+        <v>100740286.4</v>
       </c>
       <c r="C155">
-        <v>25.864393289999999</v>
+        <v>25.86439329</v>
       </c>
       <c r="D155">
-        <v>7.0643189999999995E-2</v>
+        <v>0.07064319</v>
       </c>
       <c r="E155" s="1">
-        <v>7.2699999999999999E-9</v>
+        <v>7.27e-9</v>
       </c>
       <c r="F155">
-        <v>6.4829145730000004</v>
+        <v>6.482914573</v>
       </c>
       <c r="G155">
-        <v>2.6528699999999999E-3</v>
+        <v>0.00265287</v>
       </c>
       <c r="H155">
-        <v>-8.8065799999999998E-4</v>
+        <v>-0.000880658</v>
       </c>
       <c r="I155">
-        <v>0.12887957899999999</v>
+        <v>0.128879579</v>
       </c>
       <c r="J155">
-        <v>110.15235250000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+        <v>110.1523525</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5963,54 +5959,54 @@
         <v>100692804.8</v>
       </c>
       <c r="C156">
-        <v>25.877963829999999</v>
+        <v>25.87796383</v>
       </c>
       <c r="D156">
-        <v>7.1179553000000007E-2</v>
+        <v>0.071179553</v>
       </c>
       <c r="E156" s="1">
-        <v>7.2799999999999997E-9</v>
+        <v>7.28e-9</v>
       </c>
       <c r="F156">
-        <v>6.5050251259999996</v>
+        <v>6.505025126</v>
       </c>
       <c r="G156">
-        <v>2.6227139999999999E-3</v>
+        <v>0.002622714</v>
       </c>
       <c r="H156">
-        <v>-9.4287699999999995E-4</v>
+        <v>-0.000942877</v>
       </c>
       <c r="I156">
         <v>0.121951937</v>
       </c>
       <c r="J156">
-        <v>110.27430440000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+        <v>110.2743044</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>100642301.40000001</v>
+        <v>100642301.4</v>
       </c>
       <c r="C157">
-        <v>25.891382790000002</v>
+        <v>25.89138279</v>
       </c>
       <c r="D157">
-        <v>7.1720405000000001E-2</v>
+        <v>0.071720405</v>
       </c>
       <c r="E157" s="1">
-        <v>7.2900000000000003E-9</v>
+        <v>7.29e-9</v>
       </c>
       <c r="F157">
-        <v>6.5271356779999996</v>
+        <v>6.527135678</v>
       </c>
       <c r="G157">
-        <v>2.592067E-3</v>
+        <v>0.002592067</v>
       </c>
       <c r="H157">
-        <v>-1.00337E-3</v>
+        <v>-0.00100337</v>
       </c>
       <c r="I157">
         <v>0.11513141</v>
@@ -6019,7 +6015,7 @@
         <v>110.3894359</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6027,31 +6023,31 @@
         <v>100588808.7</v>
       </c>
       <c r="C158">
-        <v>25.904644730000001</v>
+        <v>25.90464473</v>
       </c>
       <c r="D158">
-        <v>7.2265663999999993E-2</v>
+        <v>0.072265664</v>
       </c>
       <c r="E158" s="1">
-        <v>7.3099999999999998E-9</v>
+        <v>7.31e-9</v>
       </c>
       <c r="F158">
-        <v>6.5492462309999997</v>
+        <v>6.549246231</v>
       </c>
       <c r="G158">
-        <v>2.5604170000000002E-3</v>
+        <v>0.002560417</v>
       </c>
       <c r="H158">
-        <v>-1.063308E-3</v>
+        <v>-0.001063308</v>
       </c>
       <c r="I158">
-        <v>0.10829715700000001</v>
+        <v>0.108297157</v>
       </c>
       <c r="J158">
         <v>110.497733</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6059,22 +6055,22 @@
         <v>100532376.3</v>
       </c>
       <c r="C159">
-        <v>25.917761349999999</v>
+        <v>25.91776135</v>
       </c>
       <c r="D159">
-        <v>7.2815412999999996E-2</v>
+        <v>0.072815413</v>
       </c>
       <c r="E159" s="1">
-        <v>7.3200000000000004E-9</v>
+        <v>7.32e-9</v>
       </c>
       <c r="F159">
-        <v>6.5713567839999998</v>
+        <v>6.571356784</v>
       </c>
       <c r="G159">
-        <v>2.5310710000000002E-3</v>
+        <v>0.002531071</v>
       </c>
       <c r="H159">
-        <v>-1.1223559999999999E-3</v>
+        <v>-0.001122356</v>
       </c>
       <c r="I159">
         <v>0.10171347</v>
@@ -6083,39 +6079,39 @@
         <v>110.5994465</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>100473098.09999999</v>
+        <v>100473098.1</v>
       </c>
       <c r="C160">
         <v>25.93073751</v>
       </c>
       <c r="D160">
-        <v>7.3369722999999998E-2</v>
+        <v>0.073369723</v>
       </c>
       <c r="E160" s="1">
-        <v>7.3399999999999999E-9</v>
+        <v>7.34e-9</v>
       </c>
       <c r="F160">
-        <v>6.5934673369999999</v>
+        <v>6.593467337</v>
       </c>
       <c r="G160">
-        <v>2.5027069999999998E-3</v>
+        <v>0.002502707</v>
       </c>
       <c r="H160">
-        <v>-1.1796339999999999E-3</v>
+        <v>-0.001179634</v>
       </c>
       <c r="I160">
-        <v>9.5347836000000005E-2</v>
+        <v>0.095347836</v>
       </c>
       <c r="J160">
         <v>110.6947943</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6123,31 +6119,31 @@
         <v>100410979.3</v>
       </c>
       <c r="C161">
-        <v>25.943565240000002</v>
+        <v>25.94356524</v>
       </c>
       <c r="D161">
-        <v>7.3928442999999996E-2</v>
+        <v>0.073928443</v>
       </c>
       <c r="E161" s="1">
-        <v>7.3499999999999996E-9</v>
+        <v>7.35e-9</v>
       </c>
       <c r="F161">
-        <v>6.6155778889999999</v>
+        <v>6.615577889</v>
       </c>
       <c r="G161">
-        <v>2.4728480000000001E-3</v>
+        <v>0.002472848</v>
       </c>
       <c r="H161">
-        <v>-1.236909E-3</v>
+        <v>-0.001236909</v>
       </c>
       <c r="I161">
-        <v>8.8894740999999999E-2</v>
+        <v>0.088894741</v>
       </c>
       <c r="J161">
         <v>110.7836891</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6155,31 +6151,31 @@
         <v>100346105.3</v>
       </c>
       <c r="C162">
-        <v>25.956248370000001</v>
+        <v>25.95624837</v>
       </c>
       <c r="D162">
-        <v>7.4491646999999994E-2</v>
+        <v>0.074491647</v>
       </c>
       <c r="E162" s="1">
-        <v>7.3600000000000002E-9</v>
+        <v>7.36e-9</v>
       </c>
       <c r="F162">
         <v>6.637688442</v>
       </c>
       <c r="G162">
-        <v>2.4437719999999999E-3</v>
+        <v>0.002443772</v>
       </c>
       <c r="H162">
-        <v>-1.292587E-3</v>
+        <v>-0.001292587</v>
       </c>
       <c r="I162">
-        <v>8.2633875999999995E-2</v>
+        <v>0.082633876</v>
       </c>
       <c r="J162">
         <v>110.8663229</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6187,95 +6183,95 @@
         <v>100278548.3</v>
       </c>
       <c r="C163">
-        <v>25.968785539999999</v>
+        <v>25.96878554</v>
       </c>
       <c r="D163">
-        <v>7.5059336000000004E-2</v>
+        <v>0.075059336</v>
       </c>
       <c r="E163" s="1">
-        <v>7.3799999999999997E-9</v>
+        <v>7.38e-9</v>
       </c>
       <c r="F163">
-        <v>6.6597989950000001</v>
+        <v>6.659798995</v>
       </c>
       <c r="G163">
-        <v>2.4144769999999999E-3</v>
+        <v>0.002414477</v>
       </c>
       <c r="H163">
-        <v>-1.346933E-3</v>
+        <v>-0.001346933</v>
       </c>
       <c r="I163">
-        <v>7.6474089999999995E-2</v>
+        <v>0.07647409</v>
       </c>
       <c r="J163">
         <v>110.942797</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>100208349.90000001</v>
+        <v>100208349.9</v>
       </c>
       <c r="C164">
-        <v>25.981189650000001</v>
+        <v>25.98118965</v>
       </c>
       <c r="D164">
-        <v>7.5631586000000001E-2</v>
+        <v>0.075631586</v>
       </c>
       <c r="E164" s="1">
-        <v>7.4000000000000001E-9</v>
+        <v>7.4e-9</v>
       </c>
       <c r="F164">
-        <v>6.6819095480000001</v>
+        <v>6.681909548</v>
       </c>
       <c r="G164">
-        <v>2.3877009999999999E-3</v>
+        <v>0.002387701</v>
       </c>
       <c r="H164">
-        <v>-1.400559E-3</v>
+        <v>-0.001400559</v>
       </c>
       <c r="I164">
-        <v>7.0567730999999995E-2</v>
+        <v>0.070567731</v>
       </c>
       <c r="J164">
-        <v>111.01336480000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.0133648</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>100135484.09999999</v>
+        <v>100135484.1</v>
       </c>
       <c r="C165">
         <v>25.99344284</v>
       </c>
       <c r="D165">
-        <v>7.6208128E-2</v>
+        <v>0.076208128</v>
       </c>
       <c r="E165" s="1">
-        <v>7.4099999999999998E-9</v>
+        <v>7.41e-9</v>
       </c>
       <c r="F165">
-        <v>6.7040201010000002</v>
+        <v>6.704020101</v>
       </c>
       <c r="G165">
-        <v>2.357535E-3</v>
+        <v>0.002357535</v>
       </c>
       <c r="H165">
-        <v>-1.4548149999999999E-3</v>
+        <v>-0.001454815</v>
       </c>
       <c r="I165">
-        <v>6.4396086000000005E-2</v>
+        <v>0.064396086</v>
       </c>
       <c r="J165">
-        <v>111.07776079999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.0777608</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6283,415 +6279,415 @@
         <v>100060124.8</v>
       </c>
       <c r="C166">
-        <v>26.005558270000002</v>
+        <v>26.00555827</v>
       </c>
       <c r="D166">
-        <v>7.6789242999999993E-2</v>
+        <v>0.076789243</v>
       </c>
       <c r="E166" s="1">
-        <v>7.4300000000000002E-9</v>
+        <v>7.43e-9</v>
       </c>
       <c r="F166">
-        <v>6.7261306530000002</v>
+        <v>6.726130653</v>
       </c>
       <c r="G166">
-        <v>2.3299340000000001E-3</v>
+        <v>0.002329934</v>
       </c>
       <c r="H166">
-        <v>-1.5057130000000001E-3</v>
+        <v>-0.001505713</v>
       </c>
       <c r="I166">
-        <v>5.8669737999999999E-2</v>
+        <v>0.058669738</v>
       </c>
       <c r="J166">
         <v>111.1364306</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>99982238.329999998</v>
+        <v>99982238.33</v>
       </c>
       <c r="C167">
-        <v>26.017540360000002</v>
+        <v>26.01754036</v>
       </c>
       <c r="D167">
-        <v>7.7374834000000003E-2</v>
+        <v>0.077374834</v>
       </c>
       <c r="E167" s="1">
-        <v>7.44E-9</v>
+        <v>7.44e-9</v>
       </c>
       <c r="F167">
-        <v>6.7482412060000003</v>
+        <v>6.748241206</v>
       </c>
       <c r="G167">
-        <v>2.3032259999999998E-3</v>
+        <v>0.002303226</v>
       </c>
       <c r="H167">
-        <v>-1.5574009999999999E-3</v>
+        <v>-0.001557401</v>
       </c>
       <c r="I167">
-        <v>5.2972941000000003E-2</v>
+        <v>0.052972941</v>
       </c>
       <c r="J167">
         <v>111.1894035</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>99901916.950000003</v>
+        <v>99901916.95</v>
       </c>
       <c r="C168">
-        <v>26.029382980000001</v>
+        <v>26.02938298</v>
       </c>
       <c r="D168">
-        <v>7.7964906E-2</v>
+        <v>0.077964906</v>
       </c>
       <c r="E168" s="1">
-        <v>7.4600000000000003E-9</v>
+        <v>7.46e-9</v>
       </c>
       <c r="F168">
-        <v>6.7703517590000004</v>
+        <v>6.770351759</v>
       </c>
       <c r="G168">
-        <v>2.2753729999999998E-3</v>
+        <v>0.002275373</v>
       </c>
       <c r="H168">
-        <v>-1.607359E-3</v>
+        <v>-0.001607359</v>
       </c>
       <c r="I168">
-        <v>4.7340548000000003E-2</v>
+        <v>0.047340548</v>
       </c>
       <c r="J168">
         <v>111.2367441</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>99819224.620000005</v>
+        <v>99819224.62</v>
       </c>
       <c r="C169">
-        <v>26.041090520000001</v>
+        <v>26.04109052</v>
       </c>
       <c r="D169">
-        <v>7.8559504000000002E-2</v>
+        <v>0.078559504</v>
       </c>
       <c r="E169" s="1">
-        <v>7.4799999999999998E-9</v>
+        <v>7.48e-9</v>
       </c>
       <c r="F169">
-        <v>6.7924623119999996</v>
+        <v>6.792462312</v>
       </c>
       <c r="G169">
-        <v>2.2484039999999999E-3</v>
+        <v>0.002248404</v>
       </c>
       <c r="H169">
-        <v>-1.656156E-3</v>
+        <v>-0.001656156</v>
       </c>
       <c r="I169">
-        <v>4.1876002000000002E-2</v>
+        <v>0.041876002</v>
       </c>
       <c r="J169">
         <v>111.2786201</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>99734126.340000004</v>
+        <v>99734126.34</v>
       </c>
       <c r="C170">
-        <v>26.052662250000001</v>
+        <v>26.05266225</v>
       </c>
       <c r="D170">
-        <v>7.9158488999999999E-2</v>
+        <v>0.079158489</v>
       </c>
       <c r="E170" s="1">
-        <v>7.4899999999999996E-9</v>
+        <v>7.49e-9</v>
       </c>
       <c r="F170">
-        <v>6.8145728639999996</v>
+        <v>6.814572864</v>
       </c>
       <c r="G170">
-        <v>2.2213269999999999E-3</v>
+        <v>0.002221327</v>
       </c>
       <c r="H170">
-        <v>-1.7057750000000001E-3</v>
+        <v>-0.001705775</v>
       </c>
       <c r="I170">
-        <v>3.6369179000000001E-2</v>
+        <v>0.036369179</v>
       </c>
       <c r="J170">
-        <v>111.31498929999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.3149893</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>99646768.859999999</v>
+        <v>99646768.86</v>
       </c>
       <c r="C171">
-        <v>26.064099370000001</v>
+        <v>26.06409937</v>
       </c>
       <c r="D171">
-        <v>7.9762019000000003E-2</v>
+        <v>0.079762019</v>
       </c>
       <c r="E171" s="1">
-        <v>7.5100000000000007E-9</v>
+        <v>7.51e-9</v>
       </c>
       <c r="F171">
-        <v>6.8366834169999997</v>
+        <v>6.836683417</v>
       </c>
       <c r="G171">
-        <v>2.1945189999999998E-3</v>
+        <v>0.002194519</v>
       </c>
       <c r="H171">
-        <v>-1.7525749999999999E-3</v>
+        <v>-0.001752575</v>
       </c>
       <c r="I171">
-        <v>3.1103693000000002E-2</v>
+        <v>0.031103693</v>
       </c>
       <c r="J171">
         <v>111.3460929</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>99557124.079999998</v>
+        <v>99557124.08</v>
       </c>
       <c r="C172">
         <v>26.07540929</v>
       </c>
       <c r="D172">
-        <v>8.0370027999999996E-2</v>
+        <v>0.080370028</v>
       </c>
       <c r="E172" s="1">
-        <v>7.5300000000000003E-9</v>
+        <v>7.53e-9</v>
       </c>
       <c r="F172">
-        <v>6.8587939699999998</v>
+        <v>6.85879397</v>
       </c>
       <c r="G172">
-        <v>2.1691649999999998E-3</v>
+        <v>0.002169165</v>
       </c>
       <c r="H172">
-        <v>-1.8000609999999999E-3</v>
+        <v>-0.001800061</v>
       </c>
       <c r="I172">
-        <v>2.5915677000000002E-2</v>
+        <v>0.025915677</v>
       </c>
       <c r="J172">
         <v>111.3720086</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>99465281.379999995</v>
+        <v>99465281.38</v>
       </c>
       <c r="C173">
-        <v>26.086584680000001</v>
+        <v>26.08658468</v>
       </c>
       <c r="D173">
-        <v>8.0982512000000006E-2</v>
+        <v>0.080982512</v>
       </c>
       <c r="E173" s="1">
-        <v>7.5499999999999998E-9</v>
+        <v>7.55e-9</v>
       </c>
       <c r="F173">
-        <v>6.8809045229999999</v>
+        <v>6.880904523</v>
       </c>
       <c r="G173">
-        <v>2.1424410000000001E-3</v>
+        <v>0.002142441</v>
       </c>
       <c r="H173">
-        <v>-1.8458770000000001E-3</v>
+        <v>-0.001845877</v>
       </c>
       <c r="I173">
-        <v>2.0772386E-2</v>
+        <v>0.020772386</v>
       </c>
       <c r="J173">
         <v>111.392781</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>99371280.730000004</v>
+        <v>99371280.73</v>
       </c>
       <c r="C174">
         <v>26.09763238</v>
       </c>
       <c r="D174">
-        <v>8.1599513999999998E-2</v>
+        <v>0.081599514</v>
       </c>
       <c r="E174" s="1">
-        <v>7.5699999999999993E-9</v>
+        <v>7.57e-9</v>
       </c>
       <c r="F174">
-        <v>6.9030150749999999</v>
+        <v>6.903015075</v>
       </c>
       <c r="G174">
-        <v>2.1170569999999999E-3</v>
+        <v>0.002117057</v>
       </c>
       <c r="H174">
-        <v>-1.8910140000000001E-3</v>
+        <v>-0.001891014</v>
       </c>
       <c r="I174">
-        <v>1.5794286000000001E-2</v>
+        <v>0.015794286</v>
       </c>
       <c r="J174">
         <v>111.4085753</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>99275153.730000004</v>
+        <v>99275153.73</v>
       </c>
       <c r="C175">
         <v>26.10854981</v>
       </c>
       <c r="D175">
-        <v>8.2220988999999994E-2</v>
+        <v>0.082220989</v>
       </c>
       <c r="E175" s="1">
-        <v>7.5900000000000005E-9</v>
+        <v>7.59e-9</v>
       </c>
       <c r="F175">
         <v>6.925125628</v>
       </c>
       <c r="G175">
-        <v>2.091215E-3</v>
+        <v>0.002091215</v>
       </c>
       <c r="H175">
-        <v>-1.9356410000000001E-3</v>
+        <v>-0.001935641</v>
       </c>
       <c r="I175">
-        <v>1.0843633E-2</v>
+        <v>0.010843633</v>
       </c>
       <c r="J175">
         <v>111.4194189</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>99176977.760000005</v>
+        <v>99176977.76</v>
       </c>
       <c r="C176">
-        <v>26.119340090000001</v>
+        <v>26.11934009</v>
       </c>
       <c r="D176">
-        <v>8.2847005000000001E-2</v>
+        <v>0.082847005</v>
       </c>
       <c r="E176" s="1">
-        <v>7.61E-9</v>
+        <v>7.61e-9</v>
       </c>
       <c r="F176">
-        <v>6.9472361810000001</v>
+        <v>6.947236181</v>
       </c>
       <c r="G176">
-        <v>2.0660000000000001E-3</v>
+        <v>0.002066</v>
       </c>
       <c r="H176">
-        <v>-1.978835E-3</v>
+        <v>-0.001978835</v>
       </c>
       <c r="I176">
-        <v>6.0602420000000004E-3</v>
+        <v>0.006060242</v>
       </c>
       <c r="J176">
         <v>111.4254792</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>99076720.200000003</v>
+        <v>99076720.2</v>
       </c>
       <c r="C177">
-        <v>26.129998910000001</v>
+        <v>26.12999891</v>
       </c>
       <c r="D177">
-        <v>8.3477411000000001E-2</v>
+        <v>0.083477411</v>
       </c>
       <c r="E177" s="1">
-        <v>7.6199999999999997E-9</v>
+        <v>7.62e-9</v>
       </c>
       <c r="F177">
-        <v>6.9693467340000002</v>
+        <v>6.969346734</v>
       </c>
       <c r="G177">
-        <v>2.0399900000000002E-3</v>
+        <v>0.00203999</v>
       </c>
       <c r="H177">
-        <v>-2.0228139999999999E-3</v>
+        <v>-0.002022814</v>
       </c>
       <c r="I177">
-        <v>1.19118E-3</v>
+        <v>0.00119118</v>
       </c>
       <c r="J177">
         <v>111.4266703</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>98974498.900000006</v>
+        <v>98974498.9</v>
       </c>
       <c r="C178">
-        <v>26.140544250000001</v>
+        <v>26.14054425</v>
       </c>
       <c r="D178">
-        <v>8.4112444999999994E-2</v>
+        <v>0.084112445</v>
       </c>
       <c r="E178" s="1">
-        <v>7.6399999999999993E-9</v>
+        <v>7.64e-9</v>
       </c>
       <c r="F178">
-        <v>6.9914572860000002</v>
+        <v>6.991457286</v>
       </c>
       <c r="G178">
-        <v>2.017455E-3</v>
+        <v>0.002017455</v>
       </c>
       <c r="H178">
-        <v>-2.0645429999999998E-3</v>
+        <v>-0.002064543</v>
       </c>
       <c r="I178">
-        <v>-3.2572159999999998E-3</v>
+        <v>-0.003257216</v>
       </c>
       <c r="J178">
         <v>111.4234131</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6699,31 +6695,31 @@
         <v>98870334.75</v>
       </c>
       <c r="C179">
-        <v>26.150955249999999</v>
+        <v>26.15095525</v>
       </c>
       <c r="D179">
-        <v>8.4751919999999994E-2</v>
+        <v>0.08475192</v>
       </c>
       <c r="E179" s="1">
-        <v>7.6600000000000004E-9</v>
+        <v>7.66e-9</v>
       </c>
       <c r="F179">
-        <v>7.0135678390000002</v>
+        <v>7.013567839</v>
       </c>
       <c r="G179">
-        <v>1.9909540000000001E-3</v>
+        <v>0.001990954</v>
       </c>
       <c r="H179">
-        <v>-2.1059770000000002E-3</v>
+        <v>-0.002105977</v>
       </c>
       <c r="I179">
-        <v>-7.9358840000000007E-3</v>
+        <v>-0.007935884</v>
       </c>
       <c r="J179">
         <v>111.4154772</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6731,704 +6727,704 @@
         <v>98764262.5</v>
       </c>
       <c r="C180">
-        <v>26.161248709999999</v>
+        <v>26.16124871</v>
       </c>
       <c r="D180">
-        <v>8.5395940000000004E-2</v>
+        <v>0.08539594</v>
       </c>
       <c r="E180" s="1">
-        <v>7.6799999999999999E-9</v>
+        <v>7.68e-9</v>
       </c>
       <c r="F180">
-        <v>7.0356783920000003</v>
+        <v>7.035678392</v>
       </c>
       <c r="G180">
-        <v>1.9676979999999999E-3</v>
+        <v>0.001967698</v>
       </c>
       <c r="H180">
-        <v>-2.1468360000000001E-3</v>
+        <v>-0.002146836</v>
       </c>
       <c r="I180">
-        <v>-1.2327029E-2</v>
+        <v>-0.012327029</v>
       </c>
       <c r="J180">
         <v>111.4031502</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>98656286.239999995</v>
+        <v>98656286.24</v>
       </c>
       <c r="C181">
         <v>26.17141788</v>
       </c>
       <c r="D181">
-        <v>8.6044391999999997E-2</v>
+        <v>0.086044392</v>
       </c>
       <c r="E181" s="1">
-        <v>7.6999999999999995E-9</v>
+        <v>7.7e-9</v>
       </c>
       <c r="F181">
-        <v>7.0577889450000004</v>
+        <v>7.057788945</v>
       </c>
       <c r="G181">
-        <v>1.943178E-3</v>
+        <v>0.001943178</v>
       </c>
       <c r="H181">
-        <v>-2.1877419999999999E-3</v>
+        <v>-0.002187742</v>
       </c>
       <c r="I181">
-        <v>-1.6784655999999998E-2</v>
+        <v>-0.016784656</v>
       </c>
       <c r="J181">
         <v>111.3863656</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>98546517.969999999</v>
+        <v>98546517.97</v>
       </c>
       <c r="C182">
-        <v>26.181462580000002</v>
+        <v>26.18146258</v>
       </c>
       <c r="D182">
-        <v>8.6697392999999998E-2</v>
+        <v>0.086697393</v>
       </c>
       <c r="E182" s="1">
-        <v>7.7300000000000004E-9</v>
+        <v>7.73e-9</v>
       </c>
       <c r="F182">
-        <v>7.0798994970000004</v>
+        <v>7.079899497</v>
       </c>
       <c r="G182">
-        <v>1.9186520000000001E-3</v>
+        <v>0.001918652</v>
       </c>
       <c r="H182">
-        <v>-2.2265060000000001E-3</v>
+        <v>-0.002226506</v>
       </c>
       <c r="I182">
-        <v>-2.1071948E-2</v>
+        <v>-0.021071948</v>
       </c>
       <c r="J182">
         <v>111.3652936</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>98434957.140000001</v>
+        <v>98434957.14</v>
       </c>
       <c r="C183">
-        <v>26.191397890000001</v>
+        <v>26.19139789</v>
       </c>
       <c r="D183">
-        <v>8.7354980999999998E-2</v>
+        <v>0.087354981</v>
       </c>
       <c r="E183" s="1">
-        <v>7.7499999999999999E-9</v>
+        <v>7.75e-9</v>
       </c>
       <c r="F183">
-        <v>7.1020100499999996</v>
+        <v>7.10201005</v>
       </c>
       <c r="G183">
-        <v>1.897035E-3</v>
+        <v>0.001897035</v>
       </c>
       <c r="H183">
-        <v>-2.265408E-3</v>
+        <v>-0.002265408</v>
       </c>
       <c r="I183">
-        <v>-2.5146254E-2</v>
+        <v>-0.025146254</v>
       </c>
       <c r="J183">
-        <v>111.34014740000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.3401474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>98321658.430000007</v>
+        <v>98321658.43</v>
       </c>
       <c r="C184">
-        <v>26.201208940000001</v>
+        <v>26.20120894</v>
       </c>
       <c r="D184">
-        <v>8.8017060999999994E-2</v>
+        <v>0.088017061</v>
       </c>
       <c r="E184" s="1">
-        <v>7.7699999999999994E-9</v>
+        <v>7.77e-9</v>
       </c>
       <c r="F184">
-        <v>7.1241206029999997</v>
+        <v>7.124120603</v>
       </c>
       <c r="G184">
-        <v>1.8726019999999999E-3</v>
+        <v>0.001872602</v>
       </c>
       <c r="H184">
-        <v>-2.3033279999999999E-3</v>
+        <v>-0.002303328</v>
       </c>
       <c r="I184">
-        <v>-2.9322556E-2</v>
+        <v>-0.029322556</v>
       </c>
       <c r="J184">
-        <v>111.31082480000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.3108248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>98206637.359999999</v>
+        <v>98206637.36</v>
       </c>
       <c r="C185">
-        <v>26.210898740000001</v>
+        <v>26.21089874</v>
       </c>
       <c r="D185">
-        <v>8.8683622000000004E-2</v>
+        <v>0.088683622</v>
       </c>
       <c r="E185" s="1">
-        <v>7.7900000000000006E-9</v>
+        <v>7.79e-9</v>
       </c>
       <c r="F185">
-        <v>7.1462311559999998</v>
+        <v>7.146231156</v>
       </c>
       <c r="G185">
-        <v>1.84877E-3</v>
+        <v>0.00184877</v>
       </c>
       <c r="H185">
-        <v>-2.3410599999999998E-3</v>
+        <v>-0.00234106</v>
       </c>
       <c r="I185">
-        <v>-3.3421487E-2</v>
+        <v>-0.033421487</v>
       </c>
       <c r="J185">
         <v>111.2774033</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>98089938.420000002</v>
+        <v>98089938.42</v>
       </c>
       <c r="C186">
-        <v>26.220477339999999</v>
+        <v>26.22047734</v>
       </c>
       <c r="D186">
-        <v>8.9354744999999999E-2</v>
+        <v>0.089354745</v>
       </c>
       <c r="E186" s="1">
-        <v>7.8100000000000001E-9</v>
+        <v>7.81e-9</v>
       </c>
       <c r="F186">
-        <v>7.1683417089999999</v>
+        <v>7.168341709</v>
       </c>
       <c r="G186">
-        <v>1.826884E-3</v>
+        <v>0.001826884</v>
       </c>
       <c r="H186">
-        <v>-2.378013E-3</v>
+        <v>-0.002378013</v>
       </c>
       <c r="I186">
-        <v>-3.7312313E-2</v>
+        <v>-0.037312313</v>
       </c>
       <c r="J186">
-        <v>111.24009100000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.240091</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>97971613.859999999</v>
+        <v>97971613.86</v>
       </c>
       <c r="C187">
-        <v>26.229936689999999</v>
+        <v>26.22993669</v>
       </c>
       <c r="D187">
-        <v>9.0030394999999999E-2</v>
+        <v>0.090030395</v>
       </c>
       <c r="E187" s="1">
-        <v>7.8299999999999996E-9</v>
+        <v>7.83e-9</v>
       </c>
       <c r="F187">
-        <v>7.1904522609999999</v>
+        <v>7.190452261</v>
       </c>
       <c r="G187">
-        <v>1.803483E-3</v>
+        <v>0.001803483</v>
       </c>
       <c r="H187">
-        <v>-2.4140300000000002E-3</v>
+        <v>-0.00241403</v>
       </c>
       <c r="I187">
-        <v>-4.1219311000000002E-2</v>
+        <v>-0.041219311</v>
       </c>
       <c r="J187">
         <v>111.1988717</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>97851693.159999996</v>
+        <v>97851693.16</v>
       </c>
       <c r="C188">
-        <v>26.239285349999999</v>
+        <v>26.23928535</v>
       </c>
       <c r="D188">
-        <v>9.0710624000000004E-2</v>
+        <v>0.090710624</v>
       </c>
       <c r="E188" s="1">
-        <v>7.8600000000000006E-9</v>
+        <v>7.86e-9</v>
       </c>
       <c r="F188">
         <v>7.212562814</v>
       </c>
       <c r="G188">
-        <v>1.781742E-3</v>
+        <v>0.001781742</v>
       </c>
       <c r="H188">
-        <v>-2.4495699999999999E-3</v>
+        <v>-0.00244957</v>
       </c>
       <c r="I188">
-        <v>-4.4959251999999998E-2</v>
+        <v>-0.044959252</v>
       </c>
       <c r="J188">
         <v>111.1539124</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>97730170.790000007</v>
+        <v>97730170.79</v>
       </c>
       <c r="C189">
-        <v>26.248515860000001</v>
+        <v>26.24851586</v>
       </c>
       <c r="D189">
-        <v>9.1395276999999997E-2</v>
+        <v>0.091395277</v>
       </c>
       <c r="E189" s="1">
-        <v>7.8800000000000001E-9</v>
+        <v>7.88e-9</v>
       </c>
       <c r="F189">
-        <v>7.2346733670000001</v>
+        <v>7.234673367</v>
       </c>
       <c r="G189">
-        <v>1.758601E-3</v>
+        <v>0.001758601</v>
       </c>
       <c r="H189">
-        <v>-2.4853509999999998E-3</v>
+        <v>-0.002485351</v>
       </c>
       <c r="I189">
-        <v>-4.8786817000000003E-2</v>
+        <v>-0.048786817</v>
       </c>
       <c r="J189">
-        <v>111.10512559999999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.1051256</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>97607156.180000007</v>
+        <v>97607156.18</v>
       </c>
       <c r="C190">
-        <v>26.257635860000001</v>
+        <v>26.25763586</v>
       </c>
       <c r="D190">
-        <v>9.2084567000000006E-2</v>
+        <v>0.092084567</v>
       </c>
       <c r="E190" s="1">
-        <v>7.8999999999999996E-9</v>
+        <v>7.9e-9</v>
       </c>
       <c r="F190">
-        <v>7.2567839200000002</v>
+        <v>7.25678392</v>
       </c>
       <c r="G190">
-        <v>1.73694E-3</v>
+        <v>0.00173694</v>
       </c>
       <c r="H190">
-        <v>-2.5190199999999999E-3</v>
+        <v>-0.00251902</v>
       </c>
       <c r="I190">
-        <v>-5.2350567000000001E-2</v>
+        <v>-0.052350567</v>
       </c>
       <c r="J190">
-        <v>111.05277510000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111.0527751</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>97482630.670000002</v>
+        <v>97482630.67</v>
       </c>
       <c r="C191">
-        <v>26.266649090000001</v>
+        <v>26.26664909</v>
       </c>
       <c r="D191">
-        <v>9.2778398999999998E-2</v>
+        <v>0.092778399</v>
       </c>
       <c r="E191" s="1">
-        <v>7.9200000000000008E-9</v>
+        <v>7.92e-9</v>
       </c>
       <c r="F191">
-        <v>7.2788944720000002</v>
+        <v>7.278894472</v>
       </c>
       <c r="G191">
-        <v>1.7160109999999999E-3</v>
+        <v>0.001716011</v>
       </c>
       <c r="H191">
-        <v>-2.5531949999999999E-3</v>
+        <v>-0.002553195</v>
       </c>
       <c r="I191">
-        <v>-5.5877111E-2</v>
+        <v>-0.055877111</v>
       </c>
       <c r="J191">
-        <v>110.99689789999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+        <v>110.9968979</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>97356629.200000003</v>
+        <v>97356629.2</v>
       </c>
       <c r="C192">
-        <v>26.275543710000001</v>
+        <v>26.27554371</v>
       </c>
       <c r="D192">
-        <v>9.3476701999999995E-2</v>
+        <v>0.093476702</v>
       </c>
       <c r="E192" s="1">
-        <v>7.9500000000000001E-9</v>
+        <v>7.95e-9</v>
       </c>
       <c r="F192">
-        <v>7.3010050250000003</v>
+        <v>7.301005025</v>
       </c>
       <c r="G192">
-        <v>1.692853E-3</v>
+        <v>0.001692853</v>
       </c>
       <c r="H192">
-        <v>-2.586779E-3</v>
+        <v>-0.002586779</v>
       </c>
       <c r="I192">
-        <v>-5.9490692999999997E-2</v>
+        <v>-0.059490693</v>
       </c>
       <c r="J192">
         <v>110.9374073</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>97229222.790000007</v>
+        <v>97229222.79</v>
       </c>
       <c r="C193">
-        <v>26.284328389999999</v>
+        <v>26.28432839</v>
       </c>
       <c r="D193">
-        <v>9.4179600000000002E-2</v>
+        <v>0.0941796</v>
       </c>
       <c r="E193" s="1">
-        <v>7.9699999999999996E-9</v>
+        <v>7.97e-9</v>
       </c>
       <c r="F193">
-        <v>7.3231155780000003</v>
+        <v>7.323115578</v>
       </c>
       <c r="G193">
-        <v>1.6713660000000001E-3</v>
+        <v>0.001671366</v>
       </c>
       <c r="H193">
-        <v>-2.6190279999999998E-3</v>
+        <v>-0.002619028</v>
       </c>
       <c r="I193">
-        <v>-6.2882069999999998E-2</v>
+        <v>-0.06288207</v>
       </c>
       <c r="J193">
-        <v>110.87452519999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+        <v>110.8745252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>97100425.489999995</v>
+        <v>97100425.49</v>
       </c>
       <c r="C194">
         <v>26.29301057</v>
       </c>
       <c r="D194">
-        <v>9.4887105999999999E-2</v>
+        <v>0.094887106</v>
       </c>
       <c r="E194" s="1">
-        <v>7.9900000000000007E-9</v>
+        <v>7.99e-9</v>
       </c>
       <c r="F194">
-        <v>7.3452261310000004</v>
+        <v>7.345226131</v>
       </c>
       <c r="G194">
-        <v>1.651317E-3</v>
+        <v>0.001651317</v>
       </c>
       <c r="H194">
-        <v>-2.6511109999999998E-3</v>
+        <v>-0.002651111</v>
       </c>
       <c r="I194">
-        <v>-6.6145340999999996E-2</v>
+        <v>-0.066145341</v>
       </c>
       <c r="J194">
         <v>110.8083798</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>96970261.790000007</v>
+        <v>96970261.79</v>
       </c>
       <c r="C195">
-        <v>26.301583900000001</v>
+        <v>26.3015839</v>
       </c>
       <c r="D195">
-        <v>9.5599150999999993E-2</v>
+        <v>0.095599151</v>
       </c>
       <c r="E195" s="1">
-        <v>8.02E-9</v>
+        <v>8.02e-9</v>
       </c>
       <c r="F195">
-        <v>7.3673366830000004</v>
+        <v>7.367336683</v>
       </c>
       <c r="G195">
-        <v>1.630077E-3</v>
+        <v>0.001630077</v>
       </c>
       <c r="H195">
-        <v>-2.6828109999999998E-3</v>
+        <v>-0.002682811</v>
       </c>
       <c r="I195">
-        <v>-6.9440793000000001E-2</v>
+        <v>-0.069440793</v>
       </c>
       <c r="J195">
         <v>110.738939</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>96838756.760000005</v>
+        <v>96838756.76</v>
       </c>
       <c r="C196">
-        <v>26.310048890000001</v>
+        <v>26.31004889</v>
       </c>
       <c r="D196">
-        <v>9.6315737999999998E-2</v>
+        <v>0.096315738</v>
       </c>
       <c r="E196" s="1">
-        <v>8.0399999999999995E-9</v>
+        <v>8.04e-9</v>
       </c>
       <c r="F196">
-        <v>7.3894472359999996</v>
+        <v>7.389447236</v>
       </c>
       <c r="G196">
-        <v>1.608958E-3</v>
+        <v>0.001608958</v>
       </c>
       <c r="H196">
-        <v>-2.7141169999999998E-3</v>
+        <v>-0.002714117</v>
       </c>
       <c r="I196">
-        <v>-7.2680814999999996E-2</v>
+        <v>-0.072680815</v>
       </c>
       <c r="J196">
         <v>110.6662582</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>96705953.090000004</v>
+        <v>96705953.09</v>
       </c>
       <c r="C197">
-        <v>26.318413289999999</v>
+        <v>26.31841329</v>
       </c>
       <c r="D197">
-        <v>9.7036925999999996E-2</v>
+        <v>0.097036926</v>
       </c>
       <c r="E197" s="1">
-        <v>8.0700000000000005E-9</v>
+        <v>8.07e-9</v>
       </c>
       <c r="F197">
-        <v>7.4115577889999997</v>
+        <v>7.411557789</v>
       </c>
       <c r="G197">
-        <v>1.5893299999999999E-3</v>
+        <v>0.00158933</v>
       </c>
       <c r="H197">
-        <v>-2.7446630000000001E-3</v>
+        <v>-0.002744663</v>
       </c>
       <c r="I197">
-        <v>-7.5751735000000001E-2</v>
+        <v>-0.075751735</v>
       </c>
       <c r="J197">
         <v>110.5905065</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>96571893.040000007</v>
+        <v>96571893.04</v>
       </c>
       <c r="C198">
-        <v>26.326665479999999</v>
+        <v>26.32666548</v>
       </c>
       <c r="D198">
-        <v>9.7762666999999998E-2</v>
+        <v>0.097762667</v>
       </c>
       <c r="E198" s="1">
-        <v>8.09E-9</v>
+        <v>8.09e-9</v>
       </c>
       <c r="F198">
-        <v>7.4336683419999998</v>
+        <v>7.433668342</v>
       </c>
       <c r="G198">
-        <v>1.567515E-3</v>
+        <v>0.001567515</v>
       </c>
       <c r="H198">
-        <v>-2.774454E-3</v>
+        <v>-0.002774454</v>
       </c>
       <c r="I198">
-        <v>-7.8895727999999998E-2</v>
+        <v>-0.078895728</v>
       </c>
       <c r="J198">
         <v>110.5116108</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>96436579.739999995</v>
+        <v>96436579.74</v>
       </c>
       <c r="C199">
-        <v>26.334820789999998</v>
+        <v>26.33482079</v>
       </c>
       <c r="D199">
-        <v>9.8492995999999999E-2</v>
+        <v>0.098492996</v>
       </c>
       <c r="E199" s="1">
-        <v>8.1199999999999993E-9</v>
+        <v>8.12e-9</v>
       </c>
       <c r="F199">
-        <v>7.4557788939999998</v>
+        <v>7.455778894</v>
       </c>
       <c r="G199">
-        <v>1.5486289999999999E-3</v>
+        <v>0.001548629</v>
       </c>
       <c r="H199">
-        <v>-2.8042990000000001E-3</v>
+        <v>-0.002804299</v>
       </c>
       <c r="I199">
-        <v>-8.1831061999999996E-2</v>
+        <v>-0.081831062</v>
       </c>
       <c r="J199">
         <v>110.4297797</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>96300061.099999994</v>
+        <v>96300061.1</v>
       </c>
       <c r="C200">
-        <v>26.342868790000001</v>
+        <v>26.34286879</v>
       </c>
       <c r="D200">
-        <v>9.9227887000000001E-2</v>
+        <v>0.099227887</v>
       </c>
       <c r="E200" s="1">
-        <v>8.1400000000000004E-9</v>
+        <v>8.14e-9</v>
       </c>
       <c r="F200">
-        <v>7.4778894469999999</v>
+        <v>7.477889447</v>
       </c>
       <c r="G200">
-        <v>1.527781E-3</v>
+        <v>0.001527781</v>
       </c>
       <c r="H200">
-        <v>-2.8332689999999998E-3</v>
+        <v>-0.002833269</v>
       </c>
       <c r="I200">
-        <v>-8.4816938999999994E-2</v>
+        <v>-0.084816939</v>
       </c>
       <c r="J200">
         <v>110.3449628</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>96162392.069999993</v>
+        <v>96162392.07</v>
       </c>
       <c r="C201">
-        <v>26.350815650000001</v>
+        <v>26.35081565</v>
       </c>
       <c r="D201">
-        <v>9.9967422E-2</v>
+        <v>0.099967422</v>
       </c>
       <c r="E201" s="1">
-        <v>8.1699999999999997E-9</v>
+        <v>8.17e-9</v>
       </c>
       <c r="F201">
         <v>7.5</v>
       </c>
       <c r="G201">
-        <v>1.508124E-3</v>
+        <v>0.001508124</v>
       </c>
       <c r="H201">
-        <v>-2.8612149999999999E-3</v>
+        <v>-0.002861215</v>
       </c>
       <c r="I201">
-        <v>-8.7638747000000003E-2</v>
+        <v>-0.087638747</v>
       </c>
       <c r="J201">
         <v>110.257324</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>